--- a/RubellaModel.xlsx
+++ b/RubellaModel.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/diphtheria-model-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3904C0E9-52E9-2D4E-8DC3-87163B715F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14222A6-171C-5944-8D68-A8AD50E67A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="1" r:id="rId1"/>
     <sheet name="Transitions" sheetId="5" r:id="rId2"/>
-    <sheet name="age" sheetId="2" r:id="rId3"/>
+    <sheet name="Age" sheetId="2" r:id="rId3"/>
     <sheet name="Births" sheetId="6" r:id="rId4"/>
     <sheet name="Death" sheetId="8" r:id="rId5"/>
     <sheet name="Compartments" sheetId="3" r:id="rId6"/>
-    <sheet name="contact_matrix" sheetId="4" r:id="rId7"/>
+    <sheet name="contact" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="219">
   <si>
     <t>param</t>
   </si>
@@ -68,13 +68,7 @@
     <t>recovery rate</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>group</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
   <si>
     <t>vac</t>
@@ -83,13 +77,7 @@
     <t>0-1 month</t>
   </si>
   <si>
-    <t>1/30</t>
-  </si>
-  <si>
     <t>47-48 months</t>
-  </si>
-  <si>
-    <t>1/365</t>
   </si>
   <si>
     <t>State</t>
@@ -318,9 +306,6 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>1/3650</t>
   </si>
   <si>
     <t>4-5 years</t>
@@ -560,9 +545,6 @@
     <t>Motaze, 2020</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -691,6 +673,30 @@
   <si>
     <t>s[,tic]*V</t>
   </si>
+  <si>
+    <t>ptrans</t>
+  </si>
+  <si>
+    <t>transmission probability</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>agecat</t>
+  </si>
+  <si>
+    <t>agerate</t>
+  </si>
+  <si>
+    <t>age_group</t>
+  </si>
+  <si>
+    <t>fiveYearCat</t>
+  </si>
 </sst>
 </file>
 
@@ -699,7 +705,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0_);[Red]\(&quot;R&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -774,6 +780,14 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -792,10 +806,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -809,9 +824,11 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9A11093C-AB06-954B-AD8C-AD4C51D1627A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1030,7 +1047,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1048,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -1074,22 +1091,28 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1113,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38BB5D-709B-5649-A9CE-CE248A9EEEB9}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1125,294 +1148,294 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="C11" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1427,32 +1450,40 @@
   </sheetPr>
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="E1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
@@ -1462,10 +1493,11 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1/30</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1473,6 +1505,16 @@
       <c r="F2" s="11">
         <f>1-EXP(-0.95*A2)</f>
         <v>0.61325897654549877</v>
+      </c>
+      <c r="G2" s="1">
+        <f>1/30</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1483,10 +1525,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <f>1/30</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1494,6 +1537,16 @@
       <c r="F3" s="11">
         <f>1-EXP(-0.95*A3)</f>
         <v>0.85043138077736491</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G49" si="0">1/30</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1504,10 +1557,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D49" si="1">1/30</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1515,6 +1569,16 @@
       <c r="F4" s="11">
         <f>1-EXP(-0.95*A4)</f>
         <v>0.94215567912516152</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1525,10 +1589,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1536,6 +1601,16 @@
       <c r="F5" s="11">
         <f>1-EXP(-0.95*A5)</f>
         <v>0.97762922814383435</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1546,10 +1621,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1557,6 +1633,16 @@
       <c r="F6" s="11">
         <f>1-EXP(-0.95*A6)</f>
         <v>0.99134830479687941</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1567,10 +1653,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E7" s="1">
         <f>0.847*0.97*0.85</f>
@@ -1579,6 +1666,16 @@
       <c r="F7" s="11">
         <f>1-EXP(-0.95*A7)</f>
         <v>0.99665403454252877</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1589,10 +1686,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1600,6 +1698,16 @@
       <c r="F8" s="11">
         <f>1-EXP(-0.95*A8)</f>
         <v>0.99870597789453419</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1610,10 +1718,11 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1621,6 +1730,16 @@
       <c r="F9" s="11">
         <f>1-EXP(-0.95*A9)</f>
         <v>0.99949954856655943</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1631,10 +1750,11 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <f>1/30</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1642,6 +1762,16 @@
       <c r="F10" s="11">
         <f>1-EXP(-0.95*A10)</f>
         <v>0.99980645490044195</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1652,10 +1782,11 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1663,6 +1794,16 @@
       <c r="F11" s="11">
         <f>1-EXP(-0.95*A11)</f>
         <v>0.99992514817011235</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1673,10 +1814,11 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1684,6 +1826,16 @@
       <c r="F12" s="11">
         <f>1-EXP(-0.95*A12)</f>
         <v>0.99997105172670175</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1694,10 +1846,11 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E13" s="1">
         <f>0.72*0.97*0.85</f>
@@ -1706,6 +1859,16 @@
       <c r="F13" s="11">
         <f>1-EXP(-0.95*A13)</f>
         <v>0.99998880451515737</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1716,16 +1879,27 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1736,16 +1910,27 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1756,10 +1941,11 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1767,9 +1953,19 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1777,10 +1973,11 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1788,8 +1985,18 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1797,10 +2004,11 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1808,8 +2016,18 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1817,10 +2035,11 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1828,8 +2047,18 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1837,10 +2066,11 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1848,8 +2078,18 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1857,10 +2097,11 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1868,8 +2109,18 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1877,10 +2128,11 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -1888,8 +2140,18 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1897,10 +2159,11 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -1908,8 +2171,18 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1917,10 +2190,11 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -1928,8 +2202,18 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1937,10 +2221,11 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -1948,8 +2233,18 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1957,10 +2252,11 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -1968,8 +2264,18 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1977,10 +2283,11 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1988,8 +2295,18 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1997,10 +2314,11 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -2008,8 +2326,18 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2017,10 +2345,11 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -2028,8 +2357,18 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2037,10 +2376,11 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2048,8 +2388,18 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2057,10 +2407,11 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -2068,8 +2419,18 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2077,10 +2438,11 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2088,8 +2450,18 @@
       <c r="F32" s="1">
         <v>0</v>
       </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2097,10 +2469,11 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2108,8 +2481,18 @@
       <c r="F33" s="1">
         <v>0</v>
       </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2117,10 +2500,11 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2128,8 +2512,18 @@
       <c r="F34" s="1">
         <v>0</v>
       </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2137,10 +2531,11 @@
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -2148,8 +2543,18 @@
       <c r="F35" s="1">
         <v>0</v>
       </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2157,10 +2562,11 @@
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -2168,8 +2574,18 @@
       <c r="F36" s="1">
         <v>0</v>
       </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2177,10 +2593,11 @@
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -2188,8 +2605,18 @@
       <c r="F37" s="1">
         <v>0</v>
       </c>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2197,10 +2624,11 @@
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -2208,8 +2636,18 @@
       <c r="F38" s="1">
         <v>0</v>
       </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2217,10 +2655,11 @@
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2228,8 +2667,18 @@
       <c r="F39" s="1">
         <v>0</v>
       </c>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2237,10 +2686,11 @@
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -2248,8 +2698,18 @@
       <c r="F40" s="1">
         <v>0</v>
       </c>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2257,10 +2717,11 @@
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -2268,8 +2729,18 @@
       <c r="F41" s="1">
         <v>0</v>
       </c>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2277,10 +2748,11 @@
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -2288,8 +2760,18 @@
       <c r="F42" s="1">
         <v>0</v>
       </c>
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2297,10 +2779,11 @@
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -2308,8 +2791,18 @@
       <c r="F43" s="1">
         <v>0</v>
       </c>
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2317,10 +2810,11 @@
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -2328,8 +2822,18 @@
       <c r="F44" s="1">
         <v>0</v>
       </c>
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2337,10 +2841,11 @@
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -2348,8 +2853,18 @@
       <c r="F45" s="1">
         <v>0</v>
       </c>
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2357,10 +2872,11 @@
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -2368,8 +2884,18 @@
       <c r="F46" s="1">
         <v>0</v>
       </c>
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2377,10 +2903,11 @@
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -2388,8 +2915,18 @@
       <c r="F47" s="1">
         <v>0</v>
       </c>
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2397,16 +2934,27 @@
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2417,16 +2965,27 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2437,16 +2996,27 @@
         <v>48</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
+      </c>
+      <c r="D50" s="1">
+        <f>1/365</f>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <f>1/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2457,16 +3027,27 @@
         <v>60</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" ref="D51:D105" si="2">1/365</f>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" ref="G51:G105" si="3">1/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2477,10 +3058,11 @@
         <v>72</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -2488,7 +3070,16 @@
       <c r="F52" s="1">
         <v>0</v>
       </c>
-      <c r="I52" s="1"/>
+      <c r="G52" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
@@ -2498,16 +3089,27 @@
         <v>84</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>16</v>
+        <v>92</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2518,16 +3120,27 @@
         <v>96</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>16</v>
+        <v>93</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2538,16 +3151,27 @@
         <v>108</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>16</v>
+        <v>94</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2558,16 +3182,27 @@
         <v>120</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>16</v>
+        <v>95</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2578,16 +3213,27 @@
         <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>16</v>
+        <v>96</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2598,16 +3244,27 @@
         <v>144</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2618,16 +3275,27 @@
         <v>156</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>16</v>
+        <v>98</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2638,16 +3306,27 @@
         <v>168</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>16</v>
+        <v>99</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2658,16 +3337,27 @@
         <v>180</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>16</v>
+        <v>100</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2678,16 +3368,27 @@
         <v>192</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2698,16 +3399,27 @@
         <v>204</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2718,10 +3430,11 @@
         <v>216</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>16</v>
+        <v>103</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -2729,8 +3442,18 @@
       <c r="F64" s="1">
         <v>0</v>
       </c>
+      <c r="G64" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
     </row>
-    <row r="65" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2738,10 +3461,11 @@
         <v>228</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>16</v>
+        <v>104</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -2749,8 +3473,18 @@
       <c r="F65" s="1">
         <v>0</v>
       </c>
+      <c r="G65" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
     </row>
-    <row r="66" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2758,10 +3492,11 @@
         <v>240</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>16</v>
+        <v>105</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -2769,8 +3504,18 @@
       <c r="F66" s="1">
         <v>0</v>
       </c>
+      <c r="G66" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
     </row>
-    <row r="67" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2778,10 +3523,11 @@
         <v>252</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>16</v>
+        <v>106</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
@@ -2789,8 +3535,18 @@
       <c r="F67" s="1">
         <v>0</v>
       </c>
+      <c r="G67" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
     </row>
-    <row r="68" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2798,10 +3554,11 @@
         <v>264</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>16</v>
+        <v>107</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -2809,8 +3566,18 @@
       <c r="F68" s="1">
         <v>0</v>
       </c>
+      <c r="G68" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
     </row>
-    <row r="69" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2818,10 +3585,11 @@
         <v>276</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>16</v>
+        <v>108</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -2829,8 +3597,18 @@
       <c r="F69" s="1">
         <v>0</v>
       </c>
+      <c r="G69" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
     </row>
-    <row r="70" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2838,10 +3616,11 @@
         <v>288</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>16</v>
+        <v>109</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -2849,8 +3628,18 @@
       <c r="F70" s="1">
         <v>0</v>
       </c>
+      <c r="G70" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
     </row>
-    <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2858,10 +3647,11 @@
         <v>300</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>16</v>
+        <v>110</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -2869,8 +3659,18 @@
       <c r="F71" s="1">
         <v>0</v>
       </c>
+      <c r="G71" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I71">
+        <v>6</v>
+      </c>
     </row>
-    <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2878,10 +3678,11 @@
         <v>312</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>16</v>
+        <v>111</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -2889,8 +3690,18 @@
       <c r="F72" s="1">
         <v>0</v>
       </c>
+      <c r="G72" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I72">
+        <v>6</v>
+      </c>
     </row>
-    <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2898,10 +3709,11 @@
         <v>324</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>16</v>
+        <v>112</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -2909,8 +3721,18 @@
       <c r="F73" s="1">
         <v>0</v>
       </c>
+      <c r="G73" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I73">
+        <v>6</v>
+      </c>
     </row>
-    <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2918,10 +3740,11 @@
         <v>336</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>16</v>
+        <v>113</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -2929,8 +3752,18 @@
       <c r="F74" s="1">
         <v>0</v>
       </c>
+      <c r="G74" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I74">
+        <v>6</v>
+      </c>
     </row>
-    <row r="75" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2938,10 +3771,11 @@
         <v>348</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>16</v>
+        <v>114</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -2949,8 +3783,18 @@
       <c r="F75" s="1">
         <v>0</v>
       </c>
+      <c r="G75" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I75">
+        <v>6</v>
+      </c>
     </row>
-    <row r="76" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2958,10 +3802,11 @@
         <v>360</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>16</v>
+        <v>115</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -2969,8 +3814,18 @@
       <c r="F76" s="1">
         <v>0</v>
       </c>
+      <c r="G76" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I76">
+        <v>7</v>
+      </c>
     </row>
-    <row r="77" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2978,10 +3833,11 @@
         <v>372</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>16</v>
+        <v>116</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -2989,8 +3845,18 @@
       <c r="F77" s="1">
         <v>0</v>
       </c>
+      <c r="G77" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I77">
+        <v>7</v>
+      </c>
     </row>
-    <row r="78" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2998,10 +3864,11 @@
         <v>384</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>16</v>
+        <v>117</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
@@ -3009,8 +3876,18 @@
       <c r="F78" s="1">
         <v>0</v>
       </c>
+      <c r="G78" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I78">
+        <v>7</v>
+      </c>
     </row>
-    <row r="79" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3018,10 +3895,11 @@
         <v>396</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>16</v>
+        <v>118</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
@@ -3029,8 +3907,18 @@
       <c r="F79" s="1">
         <v>0</v>
       </c>
+      <c r="G79" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
+      </c>
     </row>
-    <row r="80" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3038,10 +3926,11 @@
         <v>408</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3049,8 +3938,18 @@
       <c r="F80" s="1">
         <v>0</v>
       </c>
+      <c r="G80" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I80">
+        <v>7</v>
+      </c>
     </row>
-    <row r="81" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3058,10 +3957,11 @@
         <v>420</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -3069,8 +3969,18 @@
       <c r="F81" s="1">
         <v>0</v>
       </c>
+      <c r="G81" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I81">
+        <v>8</v>
+      </c>
     </row>
-    <row r="82" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3078,10 +3988,11 @@
         <v>432</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>16</v>
+        <v>121</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -3089,8 +4000,18 @@
       <c r="F82" s="1">
         <v>0</v>
       </c>
+      <c r="G82" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I82">
+        <v>8</v>
+      </c>
     </row>
-    <row r="83" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3098,10 +4019,11 @@
         <v>444</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>16</v>
+        <v>143</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -3109,8 +4031,18 @@
       <c r="F83" s="1">
         <v>0</v>
       </c>
+      <c r="G83" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I83">
+        <v>8</v>
+      </c>
     </row>
-    <row r="84" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3118,10 +4050,11 @@
         <v>456</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>16</v>
+        <v>144</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
@@ -3129,8 +4062,18 @@
       <c r="F84" s="1">
         <v>0</v>
       </c>
+      <c r="G84" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I84">
+        <v>8</v>
+      </c>
     </row>
-    <row r="85" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3138,10 +4081,11 @@
         <v>468</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>16</v>
+        <v>122</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E85" s="1">
         <v>0</v>
@@ -3149,8 +4093,18 @@
       <c r="F85" s="1">
         <v>0</v>
       </c>
+      <c r="G85" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I85">
+        <v>8</v>
+      </c>
     </row>
-    <row r="86" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3158,10 +4112,11 @@
         <v>480</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -3169,8 +4124,18 @@
       <c r="F86" s="1">
         <v>0</v>
       </c>
+      <c r="G86" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I86">
+        <v>9</v>
+      </c>
     </row>
-    <row r="87" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3178,10 +4143,11 @@
         <v>492</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>16</v>
+        <v>124</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -3189,8 +4155,18 @@
       <c r="F87" s="1">
         <v>0</v>
       </c>
+      <c r="G87" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I87">
+        <v>9</v>
+      </c>
     </row>
-    <row r="88" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3198,10 +4174,11 @@
         <v>504</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>16</v>
+        <v>125</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -3209,8 +4186,18 @@
       <c r="F88" s="1">
         <v>0</v>
       </c>
+      <c r="G88" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I88">
+        <v>9</v>
+      </c>
     </row>
-    <row r="89" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3218,10 +4205,11 @@
         <v>516</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>16</v>
+        <v>126</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -3229,8 +4217,18 @@
       <c r="F89" s="1">
         <v>0</v>
       </c>
+      <c r="G89" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I89">
+        <v>9</v>
+      </c>
     </row>
-    <row r="90" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3238,10 +4236,11 @@
         <v>528</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>16</v>
+        <v>127</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -3249,8 +4248,18 @@
       <c r="F90" s="1">
         <v>0</v>
       </c>
+      <c r="G90" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I90">
+        <v>9</v>
+      </c>
     </row>
-    <row r="91" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3258,10 +4267,11 @@
         <v>540</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>16</v>
+        <v>128</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -3269,8 +4279,18 @@
       <c r="F91" s="1">
         <v>0</v>
       </c>
+      <c r="G91" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I91">
+        <v>10</v>
+      </c>
     </row>
-    <row r="92" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3278,10 +4298,11 @@
         <v>552</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>16</v>
+        <v>129</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -3289,8 +4310,18 @@
       <c r="F92" s="1">
         <v>0</v>
       </c>
+      <c r="G92" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I92">
+        <v>10</v>
+      </c>
     </row>
-    <row r="93" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3298,10 +4329,11 @@
         <v>564</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>16</v>
+        <v>130</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E93" s="1">
         <v>0</v>
@@ -3309,8 +4341,18 @@
       <c r="F93" s="1">
         <v>0</v>
       </c>
+      <c r="G93" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I93">
+        <v>10</v>
+      </c>
     </row>
-    <row r="94" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3318,10 +4360,11 @@
         <v>576</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>16</v>
+        <v>131</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -3329,8 +4372,18 @@
       <c r="F94" s="1">
         <v>0</v>
       </c>
+      <c r="G94" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I94">
+        <v>10</v>
+      </c>
     </row>
-    <row r="95" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3338,10 +4391,11 @@
         <v>588</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>16</v>
+        <v>132</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -3349,8 +4403,18 @@
       <c r="F95" s="1">
         <v>0</v>
       </c>
+      <c r="G95" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I95">
+        <v>10</v>
+      </c>
     </row>
-    <row r="96" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3358,10 +4422,11 @@
         <v>600</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>16</v>
+        <v>133</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -3369,8 +4434,18 @@
       <c r="F96" s="1">
         <v>0</v>
       </c>
+      <c r="G96" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I96">
+        <v>11</v>
+      </c>
     </row>
-    <row r="97" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3378,10 +4453,11 @@
         <v>612</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>16</v>
+        <v>134</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -3389,8 +4465,18 @@
       <c r="F97" s="1">
         <v>0</v>
       </c>
+      <c r="G97" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I97">
+        <v>11</v>
+      </c>
     </row>
-    <row r="98" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3398,10 +4484,11 @@
         <v>624</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -3409,8 +4496,18 @@
       <c r="F98" s="1">
         <v>0</v>
       </c>
+      <c r="G98" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I98">
+        <v>11</v>
+      </c>
     </row>
-    <row r="99" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3418,10 +4515,11 @@
         <v>636</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>16</v>
+        <v>136</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -3429,8 +4527,18 @@
       <c r="F99" s="1">
         <v>0</v>
       </c>
+      <c r="G99" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I99">
+        <v>11</v>
+      </c>
     </row>
-    <row r="100" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3438,10 +4546,11 @@
         <v>648</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>16</v>
+        <v>137</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E100" s="1">
         <v>0</v>
@@ -3449,8 +4558,18 @@
       <c r="F100" s="1">
         <v>0</v>
       </c>
+      <c r="G100" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I100">
+        <v>11</v>
+      </c>
     </row>
-    <row r="101" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3458,10 +4577,11 @@
         <v>660</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>16</v>
+        <v>138</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -3469,8 +4589,18 @@
       <c r="F101" s="1">
         <v>0</v>
       </c>
+      <c r="G101" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I101">
+        <v>12</v>
+      </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3478,10 +4608,11 @@
         <v>672</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>16</v>
+        <v>139</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -3489,8 +4620,18 @@
       <c r="F102" s="1">
         <v>0</v>
       </c>
+      <c r="G102" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I102">
+        <v>12</v>
+      </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3498,10 +4639,11 @@
         <v>684</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>16</v>
+        <v>140</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -3509,8 +4651,18 @@
       <c r="F103" s="1">
         <v>0</v>
       </c>
+      <c r="G103" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I103">
+        <v>12</v>
+      </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3518,10 +4670,11 @@
         <v>696</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>16</v>
+        <v>141</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E104" s="1">
         <v>0</v>
@@ -3529,8 +4682,18 @@
       <c r="F104" s="1">
         <v>0</v>
       </c>
+      <c r="G104" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I104">
+        <v>12</v>
+      </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3538,10 +4701,11 @@
         <v>708</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>16</v>
+        <v>142</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972603E-3</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -3549,8 +4713,18 @@
       <c r="F105" s="1">
         <v>0</v>
       </c>
+      <c r="G105" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I105">
+        <v>12</v>
+      </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3558,10 +4732,11 @@
         <v>720</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>93</v>
+        <v>145</v>
+      </c>
+      <c r="D106" s="1">
+        <f>1/3650</f>
+        <v>2.7397260273972601E-4</v>
       </c>
       <c r="E106" s="1">
         <v>0</v>
@@ -3569,8 +4744,18 @@
       <c r="F106" s="1">
         <v>0</v>
       </c>
+      <c r="G106" s="1">
+        <f>1/3650</f>
+        <v>2.7397260273972601E-4</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I106">
+        <v>15</v>
+      </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3578,10 +4763,11 @@
         <v>840</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>93</v>
+        <v>146</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" ref="D107:D109" si="4">1/3650</f>
+        <v>2.7397260273972601E-4</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
@@ -3589,8 +4775,18 @@
       <c r="F107" s="1">
         <v>0</v>
       </c>
+      <c r="G107" s="1">
+        <f t="shared" ref="G107:G109" si="5">1/3650</f>
+        <v>2.7397260273972601E-4</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I107">
+        <v>16</v>
+      </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3598,10 +4794,11 @@
         <v>960</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>93</v>
+        <v>147</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7397260273972601E-4</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -3609,8 +4806,18 @@
       <c r="F108" s="1">
         <v>0</v>
       </c>
+      <c r="G108" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7397260273972601E-4</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I108">
+        <v>16</v>
+      </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3618,10 +4825,11 @@
         <v>1080</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>93</v>
+        <v>148</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7397260273972601E-4</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -3629,8 +4837,18 @@
       <c r="F109" s="1">
         <v>0</v>
       </c>
+      <c r="G109" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7397260273972601E-4</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I109">
+        <v>16</v>
+      </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3638,10 +4856,10 @@
         <v>1200</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -3649,11 +4867,20 @@
       <c r="F110" s="1">
         <v>0</v>
       </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I110">
+        <v>16</v>
+      </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3745,7 +4972,7 @@
   <dimension ref="A1:AF110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3850,7 +5077,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>995158.53700466652</v>
@@ -4279,8 +5506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391ED1A2-F1A6-2F4C-9536-9C7E989709D5}">
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="166" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AF2"/>
+    <sheetView zoomScale="66" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4385,7 +5612,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>5.31495776081196E-2</v>
@@ -4483,7 +5710,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>5.3149577608119648E-2</v>
@@ -4581,7 +5808,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>5.3149577608119648E-2</v>
@@ -4679,7 +5906,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>5.3149577608119648E-2</v>
@@ -4777,7 +6004,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>5.3149577608119648E-2</v>
@@ -4875,7 +6102,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>5.3149577608119648E-2</v>
@@ -4973,7 +6200,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>5.3149577608119648E-2</v>
@@ -5071,7 +6298,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>5.3149577608119648E-2</v>
@@ -5169,7 +6396,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>5.3149577608119648E-2</v>
@@ -5267,7 +6494,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>5.3149577608119648E-2</v>
@@ -5365,7 +6592,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>5.3149577608119648E-2</v>
@@ -5463,7 +6690,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>5.3149577608119648E-2</v>
@@ -5561,7 +6788,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>1.3868497204567965E-2</v>
@@ -5659,7 +6886,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>1.3868497204567965E-2</v>
@@ -5757,7 +6984,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>1.3868497204567965E-2</v>
@@ -5855,7 +7082,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>1.3868497204567965E-2</v>
@@ -5953,7 +7180,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>1.3868497204567965E-2</v>
@@ -6051,7 +7278,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>1.3868497204567965E-2</v>
@@ -6149,7 +7376,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>1.3868497204567965E-2</v>
@@ -6247,7 +7474,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>1.3868497204567965E-2</v>
@@ -6345,7 +7572,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>1.3868497204567965E-2</v>
@@ -6443,7 +7670,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>1.3868497204567965E-2</v>
@@ -6541,7 +7768,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>1.3868497204567965E-2</v>
@@ -6639,7 +7866,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>1.3868497204567965E-2</v>
@@ -6737,7 +7964,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>6.2541780589139544E-3</v>
@@ -6835,7 +8062,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>6.2541780589139544E-3</v>
@@ -6933,7 +8160,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>6.2541780589139544E-3</v>
@@ -7031,7 +8258,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>6.2541780589139544E-3</v>
@@ -7129,7 +8356,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>6.2541780589139544E-3</v>
@@ -7227,7 +8454,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>6.2541780589139544E-3</v>
@@ -7325,7 +8552,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>6.2541780589139544E-3</v>
@@ -7423,7 +8650,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>6.2541780589139544E-3</v>
@@ -7521,7 +8748,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>6.2541780589139544E-3</v>
@@ -7619,7 +8846,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>6.2541780589139544E-3</v>
@@ -7717,7 +8944,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>6.2541780589139544E-3</v>
@@ -7815,7 +9042,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>6.2541780589139544E-3</v>
@@ -7913,7 +9140,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>4.0770137289792988E-3</v>
@@ -8011,7 +9238,7 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>4.0770137289792988E-3</v>
@@ -8109,7 +9336,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>4.0770137289792988E-3</v>
@@ -8207,7 +9434,7 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B41">
         <v>4.0770137289792988E-3</v>
@@ -8305,7 +9532,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>4.0770137289792988E-3</v>
@@ -8403,7 +9630,7 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B43">
         <v>4.0770137289792988E-3</v>
@@ -8501,7 +9728,7 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B44">
         <v>4.0770137289792988E-3</v>
@@ -8599,7 +9826,7 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B45">
         <v>4.0770137289792988E-3</v>
@@ -8697,7 +9924,7 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>4.0770137289792988E-3</v>
@@ -8795,7 +10022,7 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B47">
         <v>4.0770137289792988E-3</v>
@@ -8893,7 +10120,7 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B48">
         <v>4.0770137289792988E-3</v>
@@ -8991,7 +10218,7 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>4.0770137289792988E-3</v>
@@ -9089,7 +10316,7 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>2.9692198788789635E-3</v>
@@ -9187,7 +10414,7 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>2.2450090731595887E-3</v>
@@ -9285,7 +10512,7 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>1.7021585254225018E-3</v>
@@ -9383,7 +10610,7 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>1.2873457562425682E-3</v>
@@ -9481,7 +10708,7 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>9.853473533961302E-4</v>
@@ -9579,7 +10806,7 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>7.8829921246185324E-4</v>
@@ -9677,7 +10904,7 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>7.0352678393842719E-4</v>
@@ -9775,7 +11002,7 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>7.3824391348174649E-4</v>
@@ -9873,7 +11100,7 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>7.3654257182248918E-4</v>
@@ -9971,7 +11198,7 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>7.9879341610210731E-4</v>
@@ -10069,7 +11296,7 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>9.1147934493334879E-4</v>
@@ -10167,7 +11394,7 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>1.0719195565310653E-3</v>
@@ -10265,7 +11492,7 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>1.2931117072927996E-3</v>
@@ -10363,7 +11590,7 @@
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>1.6041817705103162E-3</v>
@@ -10461,7 +11688,7 @@
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>2.0497265341742244E-3</v>
@@ -10559,7 +11786,7 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>2.676580903307206E-3</v>
@@ -10657,7 +11884,7 @@
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>3.5083138061456614E-3</v>
@@ -10755,7 +11982,7 @@
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>4.5239347104653951E-3</v>
@@ -10853,7 +12080,7 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>5.6553756759356328E-3</v>
@@ -10951,7 +12178,7 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>6.8092270265930404E-3</v>
@@ -11049,7 +12276,7 @@
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>7.8946991176817669E-3</v>
@@ -11147,7 +12374,7 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>8.8439939856285767E-3</v>
@@ -11245,7 +12472,7 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>9.6199404359245712E-3</v>
@@ -11343,7 +12570,7 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>1.0219822349359269E-2</v>
@@ -11441,7 +12668,7 @@
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>1.0666541614018437E-2</v>
@@ -11539,7 +12766,7 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>1.0994429720565494E-2</v>
@@ -11637,7 +12864,7 @@
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>1.1239946914176752E-2</v>
@@ -11735,7 +12962,7 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>1.1436452598432184E-2</v>
@@ -11833,7 +13060,7 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>1.1609394112405032E-2</v>
@@ -11931,7 +13158,7 @@
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>1.1778721441801556E-2</v>
@@ -12029,7 +13256,7 @@
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>1.1966943107815495E-2</v>
@@ -12127,7 +13354,7 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>1.2194290828075993E-2</v>
@@ -12225,7 +13452,7 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>1.2470880902130568E-2</v>
@@ -12323,7 +13550,7 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B83">
         <v>1.2796638602314111E-2</v>
@@ -12421,7 +13648,7 @@
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B84">
         <v>1.3162544566603096E-2</v>
@@ -12519,7 +13746,7 @@
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>1.3548428333937325E-2</v>
@@ -12617,7 +13844,7 @@
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>1.3930247750814605E-2</v>
@@ -12715,7 +13942,7 @@
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>1.4289497090854671E-2</v>
@@ -12813,7 +14040,7 @@
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>1.4614806784683495E-2</v>
@@ -12911,7 +14138,7 @@
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>1.490604339738796E-2</v>
@@ -13009,7 +14236,7 @@
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>1.5172781087649153E-2</v>
@@ -13107,7 +14334,7 @@
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>1.5430129990242082E-2</v>
@@ -13205,7 +14432,7 @@
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>1.5693529650769682E-2</v>
@@ -13303,7 +14530,7 @@
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>1.5977558725636731E-2</v>
@@ -13401,7 +14628,7 @@
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>1.6288616790779677E-2</v>
@@ -13499,7 +14726,7 @@
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B95">
         <v>1.6629128727932166E-2</v>
@@ -13597,7 +14824,7 @@
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>1.7002133466754842E-2</v>
@@ -13695,7 +14922,7 @@
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>1.7414167897644661E-2</v>
@@ -13793,7 +15020,7 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>1.7869670613775666E-2</v>
@@ -13891,7 +15118,7 @@
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B99">
         <v>1.8375925230803364E-2</v>
@@ -13989,7 +15216,7 @@
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B100">
         <v>1.8941669490926408E-2</v>
@@ -14087,7 +15314,7 @@
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B101">
         <v>1.9558101245170628E-2</v>
@@ -14185,7 +15412,7 @@
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A102" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B102">
         <v>2.020164446764092E-2</v>
@@ -14283,7 +15510,7 @@
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B103">
         <v>2.086066529955647E-2</v>
@@ -14381,7 +15608,7 @@
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A104" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B104">
         <v>2.1544109517972764E-2</v>
@@ -14479,7 +15706,7 @@
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B105">
         <v>2.2277129742224441E-2</v>
@@ -14577,7 +15804,7 @@
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A106" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B106">
         <v>2.887969122884846E-2</v>
@@ -14675,7 +15902,7 @@
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B107">
         <v>5.3763792845991289E-2</v>
@@ -14773,7 +16000,7 @@
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A108" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B108">
         <v>0.11390174303732555</v>
@@ -14871,7 +16098,7 @@
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B109">
         <v>0.19442177668345256</v>
@@ -14969,7 +16196,7 @@
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A110" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B110">
         <v>0.19442177668345256</v>
@@ -15112,21 +16339,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -15134,10 +16361,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -15145,10 +16372,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -15156,10 +16383,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -15167,10 +16394,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -15188,8 +16415,8 @@
   </sheetPr>
   <dimension ref="A1:DF119"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="75" workbookViewId="0">
-      <selection activeCell="BD56" sqref="BD56"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15199,339 +16426,339 @@
   <sheetData>
     <row r="1" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AS1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="AW1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AX1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BD1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="BE1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BF1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="BB1" s="10" t="s">
+      <c r="BG1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BH1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BI1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BK1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BL1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BM1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BN1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BO1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BP1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BR1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BS1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BT1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="BP1" s="10" t="s">
+      <c r="BU1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BV1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="BR1" s="10" t="s">
+      <c r="BW1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BX1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="BT1" s="10" t="s">
+      <c r="BY1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BZ1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="CA1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CB1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="BX1" s="10" t="s">
+      <c r="CC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CD1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="BZ1" s="10" t="s">
+      <c r="CE1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CF1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CG1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CH1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CI1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CJ1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CK1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CL1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CN1" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CP1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CR1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CT1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CV1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CX1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CZ1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DB1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DD1" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="DE1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="CF1" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CH1" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CJ1" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CL1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CN1" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CP1" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="CR1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="CT1" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CV1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="CX1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CZ1" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="DB1" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="DD1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="DF1" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>3.07353019268866</v>
@@ -15863,7 +17090,7 @@
     </row>
     <row r="3" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>3.07345600494763</v>
@@ -16195,7 +17422,7 @@
     </row>
     <row r="4" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>3.07345600494763</v>
@@ -16527,7 +17754,7 @@
     </row>
     <row r="5" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>3.07345600494763</v>
@@ -16859,7 +18086,7 @@
     </row>
     <row r="6" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>3.07345600494763</v>
@@ -17191,7 +18418,7 @@
     </row>
     <row r="7" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>3.07345600494763</v>
@@ -17523,7 +18750,7 @@
     </row>
     <row r="8" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>3.07345600494763</v>
@@ -17855,7 +19082,7 @@
     </row>
     <row r="9" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>3.07345600494763</v>
@@ -18187,7 +19414,7 @@
     </row>
     <row r="10" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>3.07345600494763</v>
@@ -18519,7 +19746,7 @@
     </row>
     <row r="11" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>3.07345600494763</v>
@@ -18851,7 +20078,7 @@
     </row>
     <row r="12" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>3.07345600494763</v>
@@ -19183,7 +20410,7 @@
     </row>
     <row r="13" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>3.07345600494763</v>
@@ -19515,7 +20742,7 @@
     </row>
     <row r="14" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>3.0422668306599698</v>
@@ -19847,7 +21074,7 @@
     </row>
     <row r="15" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>3.0422668306599698</v>
@@ -20179,7 +21406,7 @@
     </row>
     <row r="16" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>3.0422668306599698</v>
@@ -20511,7 +21738,7 @@
     </row>
     <row r="17" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>3.0422668306599698</v>
@@ -20843,7 +22070,7 @@
     </row>
     <row r="18" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>3.0422668306599698</v>
@@ -21175,7 +22402,7 @@
     </row>
     <row r="19" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>3.0422668306599698</v>
@@ -21507,7 +22734,7 @@
     </row>
     <row r="20" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>3.0422668306599698</v>
@@ -21839,7 +23066,7 @@
     </row>
     <row r="21" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>3.0422668306599698</v>
@@ -22171,7 +23398,7 @@
     </row>
     <row r="22" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>3.0422668306599698</v>
@@ -22503,7 +23730,7 @@
     </row>
     <row r="23" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>3.0422668306599698</v>
@@ -22835,7 +24062,7 @@
     </row>
     <row r="24" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>3.0422668306599698</v>
@@ -23167,7 +24394,7 @@
     </row>
     <row r="25" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>3.0422668306599698</v>
@@ -23499,7 +24726,7 @@
     </row>
     <row r="26" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>3.0370097778677501</v>
@@ -23831,7 +25058,7 @@
     </row>
     <row r="27" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>3.0370097778677501</v>
@@ -24163,7 +25390,7 @@
     </row>
     <row r="28" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>3.0370097778677501</v>
@@ -24495,7 +25722,7 @@
     </row>
     <row r="29" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>3.0370097778677501</v>
@@ -24827,7 +26054,7 @@
     </row>
     <row r="30" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>3.0370097778677501</v>
@@ -25159,7 +26386,7 @@
     </row>
     <row r="31" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>3.0370097778677501</v>
@@ -25491,7 +26718,7 @@
     </row>
     <row r="32" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>3.0370097778677501</v>
@@ -25823,7 +27050,7 @@
     </row>
     <row r="33" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>3.0370097778677501</v>
@@ -26155,7 +27382,7 @@
     </row>
     <row r="34" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>3.0370097778677501</v>
@@ -26487,7 +27714,7 @@
     </row>
     <row r="35" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>3.0370097778677501</v>
@@ -26819,7 +28046,7 @@
     </row>
     <row r="36" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>3.0370097778677501</v>
@@ -27151,7 +28378,7 @@
     </row>
     <row r="37" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>3.0370097778677501</v>
@@ -27483,7 +28710,7 @@
     </row>
     <row r="38" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>3.0795508854560398</v>
@@ -27815,7 +29042,7 @@
     </row>
     <row r="39" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>3.0795508854560398</v>
@@ -28147,7 +29374,7 @@
     </row>
     <row r="40" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>3.0795508854560398</v>
@@ -28479,7 +29706,7 @@
     </row>
     <row r="41" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B41">
         <v>3.0795508854560398</v>
@@ -28811,7 +30038,7 @@
     </row>
     <row r="42" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>3.0795508854560398</v>
@@ -29143,7 +30370,7 @@
     </row>
     <row r="43" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B43">
         <v>3.0795508854560398</v>
@@ -29475,7 +30702,7 @@
     </row>
     <row r="44" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B44">
         <v>3.0795508854560398</v>
@@ -29807,7 +31034,7 @@
     </row>
     <row r="45" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B45">
         <v>3.0795508854560398</v>
@@ -30139,7 +31366,7 @@
     </row>
     <row r="46" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>3.0795508854560398</v>
@@ -30471,7 +31698,7 @@
     </row>
     <row r="47" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B47">
         <v>3.0795508854560398</v>
@@ -30803,7 +32030,7 @@
     </row>
     <row r="48" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B48">
         <v>3.0795508854560398</v>
@@ -31135,7 +32362,7 @@
     </row>
     <row r="49" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>3.0795508854560398</v>
@@ -31467,7 +32694,7 @@
     </row>
     <row r="50" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>3.0795508854560398</v>
@@ -31799,7 +33026,7 @@
     </row>
     <row r="51" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>1.5403664321883299</v>
@@ -32131,7 +33358,7 @@
     </row>
     <row r="52" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>1.5388768904797301</v>
@@ -32463,7 +33690,7 @@
     </row>
     <row r="53" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>1.51885470776624</v>
@@ -32795,7 +34022,7 @@
     </row>
     <row r="54" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>1.51632559194751</v>
@@ -33127,7 +34354,7 @@
     </row>
     <row r="55" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>1.5222530647817201</v>
@@ -33459,7 +34686,7 @@
     </row>
     <row r="56" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0.72491326866870698</v>
@@ -33791,7 +35018,7 @@
     </row>
     <row r="57" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0.73216305472440801</v>
@@ -34123,7 +35350,7 @@
     </row>
     <row r="58" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0.73613405330232395</v>
@@ -34455,7 +35682,7 @@
     </row>
     <row r="59" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0.72697082869352703</v>
@@ -34787,7 +36014,7 @@
     </row>
     <row r="60" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0.73558306655608297</v>
@@ -35119,7 +36346,7 @@
     </row>
     <row r="61" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0.48114219680790699</v>
@@ -35451,7 +36678,7 @@
     </row>
     <row r="62" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0.49059328010569597</v>
@@ -35783,7 +37010,7 @@
     </row>
     <row r="63" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0.50372116267179201</v>
@@ -36115,7 +37342,7 @@
     </row>
     <row r="64" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0.51943395542034998</v>
@@ -36447,7 +37674,7 @@
     </row>
     <row r="65" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0.53421028179532404</v>
@@ -36779,7 +38006,7 @@
     </row>
     <row r="66" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0.91568282876648499</v>
@@ -37111,7 +38338,7 @@
     </row>
     <row r="67" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0.91211805795207801</v>
@@ -37443,7 +38670,7 @@
     </row>
     <row r="68" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0.90117111766816804</v>
@@ -37775,7 +39002,7 @@
     </row>
     <row r="69" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0.889297562719915</v>
@@ -38107,7 +39334,7 @@
     </row>
     <row r="70" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0.88093788721448096</v>
@@ -38439,7 +39666,7 @@
     </row>
     <row r="71" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>1.3803202231038401</v>
@@ -38771,7 +39998,7 @@
     </row>
     <row r="72" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>1.3417768688783001</v>
@@ -39103,7 +40330,7 @@
     </row>
     <row r="73" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>1.3234313191504099</v>
@@ -39435,7 +40662,7 @@
     </row>
     <row r="74" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>1.31263998964059</v>
@@ -39767,7 +40994,7 @@
     </row>
     <row r="75" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>1.30103307469737</v>
@@ -40099,7 +41326,7 @@
     </row>
     <row r="76" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>1.29108420339538</v>
@@ -40431,7 +41658,7 @@
     </row>
     <row r="77" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>1.28256370573981</v>
@@ -40763,7 +41990,7 @@
     </row>
     <row r="78" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>1.27327544795269</v>
@@ -41095,7 +42322,7 @@
     </row>
     <row r="79" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>1.26135613379461</v>
@@ -41427,7 +42654,7 @@
     </row>
     <row r="80" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>1.2615938860392599</v>
@@ -41759,7 +42986,7 @@
     </row>
     <row r="81" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>1.0806798146049601</v>
@@ -42091,7 +43318,7 @@
     </row>
     <row r="82" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>1.11057849929042</v>
@@ -42423,7 +43650,7 @@
     </row>
     <row r="83" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B83">
         <v>1.1443655958197501</v>
@@ -42755,7 +43982,7 @@
     </row>
     <row r="84" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B84">
         <v>1.1734478777728301</v>
@@ -43087,7 +44314,7 @@
     </row>
     <row r="85" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>1.20078201033138</v>
@@ -43419,7 +44646,7 @@
     </row>
     <row r="86" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>0.73835707780714999</v>
@@ -43751,7 +44978,7 @@
     </row>
     <row r="87" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>0.76100348365669901</v>
@@ -44083,7 +45310,7 @@
     </row>
     <row r="88" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0.79283538067102699</v>
@@ -44415,7 +45642,7 @@
     </row>
     <row r="89" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>0.84239788828037898</v>
@@ -44747,7 +45974,7 @@
     </row>
     <row r="90" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>0.90345473948639698</v>
@@ -45079,7 +46306,7 @@
     </row>
     <row r="91" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>0.55896183669742106</v>
@@ -45411,7 +46638,7 @@
     </row>
     <row r="92" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>0.58272587527472397</v>
@@ -45743,7 +46970,7 @@
     </row>
     <row r="93" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>0.58917433174133704</v>
@@ -46075,7 +47302,7 @@
     </row>
     <row r="94" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>0.57945224777562099</v>
@@ -46407,7 +47634,7 @@
     </row>
     <row r="95" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B95">
         <v>0.56127975800450902</v>
@@ -46739,7 +47966,7 @@
     </row>
     <row r="96" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>0.58477024325599503</v>
@@ -47071,7 +48298,7 @@
     </row>
     <row r="97" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>0.57175272386314202</v>
@@ -47403,7 +48630,7 @@
     </row>
     <row r="98" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>0.56538816504662204</v>
@@ -47735,7 +48962,7 @@
     </row>
     <row r="99" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B99">
         <v>0.56539603100711</v>
@@ -48067,7 +49294,7 @@
     </row>
     <row r="100" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B100">
         <v>0.572598454392925</v>
@@ -48399,7 +49626,7 @@
     </row>
     <row r="101" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B101">
         <v>0.67334452598216998</v>
@@ -48731,7 +49958,7 @@
     </row>
     <row r="102" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B102">
         <v>0.69089640016937903</v>
@@ -49063,7 +50290,7 @@
     </row>
     <row r="103" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B103">
         <v>0.71301157888869005</v>
@@ -49395,7 +50622,7 @@
     </row>
     <row r="104" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B104">
         <v>0.73929618341876402</v>
@@ -49727,7 +50954,7 @@
     </row>
     <row r="105" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B105">
         <v>0.76950046541587702</v>
@@ -50059,7 +51286,7 @@
     </row>
     <row r="106" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>0.279310077925983</v>
@@ -50391,7 +51618,7 @@
     </row>
     <row r="107" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>0.131816831188377</v>
@@ -50723,7 +51950,7 @@
     </row>
     <row r="108" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>0.16248190524491299</v>
@@ -51055,7 +52282,7 @@
     </row>
     <row r="109" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>0.27893747218213799</v>
@@ -51387,7 +52614,7 @@
     </row>
     <row r="110" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B110">
         <v>5.1921062952891903</v>
@@ -51719,37 +52946,37 @@
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/RubellaModel.xlsx
+++ b/RubellaModel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/diphtheria-model-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14222A6-171C-5944-8D68-A8AD50E67A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A02B07F-7697-2244-B33C-00550C15DAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="230">
   <si>
     <t>param</t>
   </si>
@@ -272,13 +272,7 @@
     <t>Loss of maternal immunity</t>
   </si>
   <si>
-    <t xml:space="preserve">Vaccination </t>
-  </si>
-  <si>
     <t xml:space="preserve">Confirm </t>
-  </si>
-  <si>
-    <t>ageing</t>
   </si>
   <si>
     <t>infection</t>
@@ -290,16 +284,7 @@
     <t>ageing maternal immunity loss</t>
   </si>
   <si>
-    <t>ageing infection</t>
-  </si>
-  <si>
-    <t>ageing natural recovery</t>
-  </si>
-  <si>
     <t>natural death</t>
-  </si>
-  <si>
-    <t>births</t>
   </si>
   <si>
     <t>Births</t>
@@ -485,9 +470,6 @@
     <t>80-90 years</t>
   </si>
   <si>
-    <t>90-100 years</t>
-  </si>
-  <si>
     <t>imm_loss</t>
   </si>
   <si>
@@ -509,12 +491,6 @@
     <t>msage</t>
   </si>
   <si>
-    <t>siage</t>
-  </si>
-  <si>
-    <t>irage</t>
-  </si>
-  <si>
     <t>Mdeath</t>
   </si>
   <si>
@@ -528,9 +504,6 @@
   </si>
   <si>
     <t>vdeath</t>
-  </si>
-  <si>
-    <t>100+years</t>
   </si>
   <si>
     <t>0.8</t>
@@ -557,9 +530,6 @@
     <t>80-89 years</t>
   </si>
   <si>
-    <t>90-99 years</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -582,9 +552,6 @@
   </si>
   <si>
     <t>V[n]</t>
-  </si>
-  <si>
-    <t>I[nxt]</t>
   </si>
   <si>
     <t>R[nxt]</t>
@@ -626,12 +593,6 @@
     <t>d*M</t>
   </si>
   <si>
-    <t>v[,tic]*S</t>
-  </si>
-  <si>
-    <t>lambda*(1 − v[,tic])*S</t>
-  </si>
-  <si>
     <t>gamma*I</t>
   </si>
   <si>
@@ -641,22 +602,7 @@
     <t>u</t>
   </si>
   <si>
-    <t>(1-d)*(1-s[,tic])*u*M</t>
-  </si>
-  <si>
-    <t>(1-s[,tic])*(1-lamda)*(1-v[,tic])*u*S</t>
-  </si>
-  <si>
     <t>(1-s[,tic])*u*V</t>
-  </si>
-  <si>
-    <t>(1-s[,tic])*d*u*(1-v[,tic])*M</t>
-  </si>
-  <si>
-    <t>(1-s[,tic])*lambda*u*(1-v)*S</t>
-  </si>
-  <si>
-    <t>(1-s[,tic])*u*I</t>
   </si>
   <si>
     <t>s[,tic]*M</t>
@@ -696,6 +642,93 @@
   </si>
   <si>
     <t>fiveYearCat</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>prop</t>
+  </si>
+  <si>
+    <t>(1-s[,tic])*(1-v[,tic])*u*S</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>(1-v[,tic])*(1-s[,tic])*u*M</t>
+  </si>
+  <si>
+    <t>mvac</t>
+  </si>
+  <si>
+    <t>Rvac</t>
+  </si>
+  <si>
+    <t>(1-v[,tic])*(1-s[,tic])*u*R</t>
+  </si>
+  <si>
+    <t>Rage</t>
+  </si>
+  <si>
+    <t>Recovered Vaccination</t>
+  </si>
+  <si>
+    <t>Recovered ageing</t>
+  </si>
+  <si>
+    <t>Births_M</t>
+  </si>
+  <si>
+    <t>Births_S</t>
+  </si>
+  <si>
+    <t>Births Maternal Immunity</t>
+  </si>
+  <si>
+    <t>Births no-maternal-immunity</t>
+  </si>
+  <si>
+    <t>(1-mprop)*births</t>
+  </si>
+  <si>
+    <t>mprop*births</t>
+  </si>
+  <si>
+    <t>(1-s[,tic])*v[,tic]*u*S</t>
+  </si>
+  <si>
+    <t>lambda*S</t>
+  </si>
+  <si>
+    <t>ageing, vaccination from succeptible</t>
+  </si>
+  <si>
+    <t>ageing, no vaccination from maternal immune</t>
+  </si>
+  <si>
+    <t>ageing, no vaccination from succeptible</t>
+  </si>
+  <si>
+    <t>ageing in vaccination compartment</t>
+  </si>
+  <si>
+    <t>ageing, vaccination from maternal immune</t>
+  </si>
+  <si>
+    <t>(1-s[,tic])*v[,tic]*u*M</t>
+  </si>
+  <si>
+    <t>(1-s[,tic])*v[,tic]*u*R</t>
+  </si>
+  <si>
+    <t>(1-s[,tic])*u*(1-v[,tic])*M</t>
+  </si>
+  <si>
+    <t>90+ years</t>
+  </si>
+  <si>
+    <t>90+</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -1091,27 +1124,27 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1134,16 +1167,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38BB5D-709B-5649-A9CE-CE248A9EEEB9}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="5" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -1163,280 +1197,371 @@
         <v>75</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>87</v>
+        <v>215</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>214</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>77</v>
+      <c r="E5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>80</v>
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>200</v>
+        <v>172</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>79</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>79</v>
+        <v>221</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>79</v>
+        <v>222</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>82</v>
+        <v>223</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>83</v>
-      </c>
     </row>
-    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>205</v>
+        <v>166</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>84</v>
+        <v>224</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>85</v>
+      <c r="C14" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>85</v>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="3" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>85</v>
+      <c r="D19" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>85</v>
-      </c>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1450,39 +1575,45 @@
   </sheetPr>
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110"/>
+    <sheetView topLeftCell="A72" zoomScale="116" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="I1" s="13" t="s">
-        <v>218</v>
+        <v>200</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1503,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="11">
-        <f>1-EXP(-0.95*A2)</f>
+        <f t="shared" ref="F2:F13" si="0">1-EXP(-0.95*A2)</f>
         <v>0.61325897654549877</v>
       </c>
       <c r="G2" s="1">
@@ -1515,6 +1646,13 @@
       </c>
       <c r="I2">
         <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>J2/120</f>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1535,11 +1673,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <f>1-EXP(-0.95*A3)</f>
+        <f t="shared" si="0"/>
         <v>0.85043138077736491</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G49" si="0">1/30</f>
+        <f t="shared" ref="G3:G49" si="1">1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1547,6 +1685,13 @@
       </c>
       <c r="I3">
         <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="2">J3/120</f>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1560,18 +1705,18 @@
         <v>15</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D49" si="1">1/30</f>
+        <f t="shared" ref="D4:D49" si="3">1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="11">
-        <f>1-EXP(-0.95*A4)</f>
+        <f t="shared" si="0"/>
         <v>0.94215567912516152</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -1579,6 +1724,13 @@
       </c>
       <c r="I4">
         <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1592,25 +1744,32 @@
         <v>16</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.97762922814383435</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <f>1-EXP(-0.95*A5)</f>
-        <v>0.97762922814383435</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I5">
         <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1624,25 +1783,32 @@
         <v>17</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.99134830479687941</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <f>1-EXP(-0.95*A6)</f>
-        <v>0.99134830479687941</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I6">
         <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1656,7 +1822,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="E7" s="1">
@@ -1664,11 +1830,11 @@
         <v>0.6983514999999999</v>
       </c>
       <c r="F7" s="11">
-        <f>1-EXP(-0.95*A7)</f>
+        <f t="shared" si="0"/>
         <v>0.99665403454252877</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1676,6 +1842,13 @@
       </c>
       <c r="I7">
         <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1689,25 +1862,32 @@
         <v>19</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.99870597789453419</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <f>1-EXP(-0.95*A8)</f>
-        <v>0.99870597789453419</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I8">
         <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1721,25 +1901,32 @@
         <v>20</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.99949954856655943</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <f>1-EXP(-0.95*A9)</f>
-        <v>0.99949954856655943</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I9">
         <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1760,11 +1947,11 @@
         <v>0</v>
       </c>
       <c r="F10" s="11">
-        <f>1-EXP(-0.95*A10)</f>
+        <f t="shared" si="0"/>
         <v>0.99980645490044195</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1772,6 +1959,13 @@
       </c>
       <c r="I10">
         <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1785,25 +1979,32 @@
         <v>22</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.99992514817011235</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <f>1-EXP(-0.95*A11)</f>
-        <v>0.99992514817011235</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I11">
         <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1817,25 +2018,32 @@
         <v>23</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.99997105172670175</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <f>1-EXP(-0.95*A12)</f>
-        <v>0.99997105172670175</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I12">
         <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1849,7 +2057,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="E13" s="1">
@@ -1857,11 +2065,11 @@
         <v>0.59363999999999995</v>
       </c>
       <c r="F13" s="11">
-        <f>1-EXP(-0.95*A13)</f>
+        <f t="shared" si="0"/>
         <v>0.99998880451515737</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -1869,6 +2077,13 @@
       </c>
       <c r="I13">
         <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1882,24 +2097,31 @@
         <v>25</v>
       </c>
       <c r="D14" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I14">
         <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1913,24 +2135,31 @@
         <v>26</v>
       </c>
       <c r="D15" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I15">
         <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1944,28 +2173,35 @@
         <v>27</v>
       </c>
       <c r="D16" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1976,27 +2212,34 @@
         <v>28</v>
       </c>
       <c r="D17" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2007,27 +2250,34 @@
         <v>29</v>
       </c>
       <c r="D18" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2038,27 +2288,34 @@
         <v>30</v>
       </c>
       <c r="D19" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2069,27 +2326,34 @@
         <v>31</v>
       </c>
       <c r="D20" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2100,27 +2364,34 @@
         <v>32</v>
       </c>
       <c r="D21" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2131,27 +2402,34 @@
         <v>33</v>
       </c>
       <c r="D22" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2162,27 +2440,34 @@
         <v>34</v>
       </c>
       <c r="D23" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2193,27 +2478,34 @@
         <v>35</v>
       </c>
       <c r="D24" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2224,27 +2516,34 @@
         <v>36</v>
       </c>
       <c r="D25" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H25" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2255,27 +2554,34 @@
         <v>37</v>
       </c>
       <c r="D26" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2286,27 +2592,34 @@
         <v>38</v>
       </c>
       <c r="D27" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2317,27 +2630,34 @@
         <v>39</v>
       </c>
       <c r="D28" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H28" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2348,27 +2668,34 @@
         <v>40</v>
       </c>
       <c r="D29" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2379,27 +2706,34 @@
         <v>41</v>
       </c>
       <c r="D30" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H30" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2410,27 +2744,34 @@
         <v>42</v>
       </c>
       <c r="D31" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2441,27 +2782,34 @@
         <v>43</v>
       </c>
       <c r="D32" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2472,27 +2820,34 @@
         <v>44</v>
       </c>
       <c r="D33" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2503,27 +2858,34 @@
         <v>45</v>
       </c>
       <c r="D34" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2534,27 +2896,34 @@
         <v>46</v>
       </c>
       <c r="D35" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>46</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2565,27 +2934,34 @@
         <v>47</v>
       </c>
       <c r="D36" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H36" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2596,27 +2972,34 @@
         <v>48</v>
       </c>
       <c r="D37" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H37" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2627,27 +3010,34 @@
         <v>49</v>
       </c>
       <c r="D38" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H38" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2658,27 +3048,34 @@
         <v>50</v>
       </c>
       <c r="D39" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H39" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2689,27 +3086,34 @@
         <v>51</v>
       </c>
       <c r="D40" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H40" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2720,27 +3124,34 @@
         <v>52</v>
       </c>
       <c r="D41" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2751,27 +3162,34 @@
         <v>53</v>
       </c>
       <c r="D42" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2782,27 +3200,34 @@
         <v>54</v>
       </c>
       <c r="D43" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2813,27 +3238,34 @@
         <v>55</v>
       </c>
       <c r="D44" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2844,27 +3276,34 @@
         <v>56</v>
       </c>
       <c r="D45" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>56</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2875,27 +3314,34 @@
         <v>57</v>
       </c>
       <c r="D46" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2906,27 +3352,34 @@
         <v>58</v>
       </c>
       <c r="D47" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2937,27 +3390,34 @@
         <v>59</v>
       </c>
       <c r="D48" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2968,27 +3428,34 @@
         <v>12</v>
       </c>
       <c r="D49" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
       <c r="H49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2996,7 +3463,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D50" s="1">
         <f>1/365</f>
@@ -3013,13 +3480,20 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
+      <c r="J50" s="1">
+        <v>12</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3027,10 +3501,10 @@
         <v>60</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" ref="D51:D105" si="2">1/365</f>
+        <f t="shared" ref="D51:D105" si="4">1/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E51" s="1">
@@ -3040,17 +3514,24 @@
         <v>0</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" ref="G51:G105" si="3">1/365</f>
+        <f t="shared" ref="G51:G105" si="5">1/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
+      <c r="J51" s="1">
+        <v>12</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3058,10 +3539,10 @@
         <v>72</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E52" s="1">
@@ -3071,17 +3552,24 @@
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I52">
         <v>2</v>
       </c>
+      <c r="J52" s="1">
+        <v>12</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3089,10 +3577,10 @@
         <v>84</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E53" s="1">
@@ -3102,17 +3590,24 @@
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I53">
         <v>2</v>
       </c>
+      <c r="J53" s="1">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3120,10 +3615,10 @@
         <v>96</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E54" s="1">
@@ -3133,17 +3628,24 @@
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I54">
         <v>2</v>
       </c>
+      <c r="J54" s="1">
+        <v>12</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3151,10 +3653,10 @@
         <v>108</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E55" s="1">
@@ -3164,17 +3666,24 @@
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I55">
         <v>2</v>
       </c>
+      <c r="J55" s="1">
+        <v>12</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3182,10 +3691,10 @@
         <v>120</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E56" s="1">
@@ -3195,17 +3704,24 @@
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I56">
         <v>3</v>
       </c>
+      <c r="J56" s="1">
+        <v>12</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3213,10 +3729,10 @@
         <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E57" s="1">
@@ -3226,17 +3742,24 @@
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I57">
         <v>3</v>
       </c>
+      <c r="J57" s="1">
+        <v>12</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3244,10 +3767,10 @@
         <v>144</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E58" s="1">
@@ -3257,17 +3780,24 @@
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I58">
         <v>3</v>
       </c>
+      <c r="J58" s="1">
+        <v>12</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3275,10 +3805,10 @@
         <v>156</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E59" s="1">
@@ -3288,17 +3818,24 @@
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I59">
         <v>3</v>
       </c>
+      <c r="J59" s="1">
+        <v>12</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3306,10 +3843,10 @@
         <v>168</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E60" s="1">
@@ -3319,17 +3856,24 @@
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
+      <c r="J60" s="1">
+        <v>12</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3337,10 +3881,10 @@
         <v>180</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E61" s="1">
@@ -3350,17 +3894,24 @@
         <v>0</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I61">
         <v>4</v>
       </c>
+      <c r="J61" s="1">
+        <v>12</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3368,10 +3919,10 @@
         <v>192</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E62" s="1">
@@ -3381,17 +3932,24 @@
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I62">
         <v>4</v>
       </c>
+      <c r="J62" s="1">
+        <v>12</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3399,10 +3957,10 @@
         <v>204</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E63" s="1">
@@ -3412,17 +3970,24 @@
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I63">
         <v>4</v>
       </c>
+      <c r="J63" s="1">
+        <v>12</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3430,10 +3995,10 @@
         <v>216</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E64" s="1">
@@ -3443,17 +4008,24 @@
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I64">
         <v>4</v>
       </c>
+      <c r="J64" s="1">
+        <v>12</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="65" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3461,10 +4033,10 @@
         <v>228</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E65" s="1">
@@ -3474,17 +4046,24 @@
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I65">
         <v>4</v>
       </c>
+      <c r="J65" s="1">
+        <v>12</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="66" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3492,10 +4071,10 @@
         <v>240</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E66" s="1">
@@ -3505,17 +4084,24 @@
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I66">
         <v>5</v>
       </c>
+      <c r="J66" s="1">
+        <v>12</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="67" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3523,10 +4109,10 @@
         <v>252</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E67" s="1">
@@ -3536,17 +4122,24 @@
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I67">
         <v>5</v>
       </c>
+      <c r="J67" s="1">
+        <v>12</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K109" si="6">J67/120</f>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="68" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3554,10 +4147,10 @@
         <v>264</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E68" s="1">
@@ -3567,17 +4160,24 @@
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I68">
         <v>5</v>
       </c>
+      <c r="J68" s="1">
+        <v>12</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="69" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3585,10 +4185,10 @@
         <v>276</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E69" s="1">
@@ -3598,17 +4198,24 @@
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I69">
         <v>5</v>
       </c>
+      <c r="J69" s="1">
+        <v>12</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="70" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3616,10 +4223,10 @@
         <v>288</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E70" s="1">
@@ -3629,17 +4236,24 @@
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I70">
         <v>5</v>
       </c>
+      <c r="J70" s="1">
+        <v>12</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="71" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3647,10 +4261,10 @@
         <v>300</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E71" s="1">
@@ -3660,17 +4274,24 @@
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I71">
         <v>6</v>
       </c>
+      <c r="J71" s="1">
+        <v>12</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3678,10 +4299,10 @@
         <v>312</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E72" s="1">
@@ -3691,17 +4312,24 @@
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I72">
         <v>6</v>
       </c>
+      <c r="J72" s="1">
+        <v>12</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="73" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3709,10 +4337,10 @@
         <v>324</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E73" s="1">
@@ -3722,17 +4350,24 @@
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I73">
         <v>6</v>
       </c>
+      <c r="J73" s="1">
+        <v>12</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3740,10 +4375,10 @@
         <v>336</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E74" s="1">
@@ -3753,17 +4388,24 @@
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I74">
         <v>6</v>
       </c>
+      <c r="J74" s="1">
+        <v>12</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3771,10 +4413,10 @@
         <v>348</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E75" s="1">
@@ -3784,17 +4426,24 @@
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I75">
         <v>6</v>
       </c>
+      <c r="J75" s="1">
+        <v>12</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="76" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3802,10 +4451,10 @@
         <v>360</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E76" s="1">
@@ -3815,17 +4464,24 @@
         <v>0</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I76">
         <v>7</v>
       </c>
+      <c r="J76" s="1">
+        <v>12</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3833,10 +4489,10 @@
         <v>372</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E77" s="1">
@@ -3846,17 +4502,24 @@
         <v>0</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I77">
         <v>7</v>
       </c>
+      <c r="J77" s="1">
+        <v>12</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3864,10 +4527,10 @@
         <v>384</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E78" s="1">
@@ -3877,17 +4540,24 @@
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I78">
         <v>7</v>
       </c>
+      <c r="J78" s="1">
+        <v>12</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3895,10 +4565,10 @@
         <v>396</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E79" s="1">
@@ -3908,17 +4578,24 @@
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I79">
         <v>7</v>
       </c>
+      <c r="J79" s="1">
+        <v>12</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3926,10 +4603,10 @@
         <v>408</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E80" s="1">
@@ -3939,17 +4616,24 @@
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I80">
         <v>7</v>
       </c>
+      <c r="J80" s="1">
+        <v>12</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3957,10 +4641,10 @@
         <v>420</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E81" s="1">
@@ -3970,17 +4654,24 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I81">
         <v>8</v>
       </c>
+      <c r="J81" s="1">
+        <v>12</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="82" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3988,10 +4679,10 @@
         <v>432</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E82" s="1">
@@ -4001,17 +4692,24 @@
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I82">
         <v>8</v>
       </c>
+      <c r="J82" s="1">
+        <v>12</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="83" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4019,10 +4717,10 @@
         <v>444</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E83" s="1">
@@ -4032,17 +4730,24 @@
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I83">
         <v>8</v>
       </c>
+      <c r="J83" s="1">
+        <v>12</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="84" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4050,10 +4755,10 @@
         <v>456</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E84" s="1">
@@ -4063,17 +4768,24 @@
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I84">
         <v>8</v>
       </c>
+      <c r="J84" s="1">
+        <v>12</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="85" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4081,10 +4793,10 @@
         <v>468</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E85" s="1">
@@ -4094,17 +4806,24 @@
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I85">
         <v>8</v>
       </c>
+      <c r="J85" s="1">
+        <v>12</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="86" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4112,10 +4831,10 @@
         <v>480</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E86" s="1">
@@ -4125,17 +4844,24 @@
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I86">
         <v>9</v>
       </c>
+      <c r="J86" s="1">
+        <v>12</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="87" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4143,10 +4869,10 @@
         <v>492</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E87" s="1">
@@ -4156,17 +4882,24 @@
         <v>0</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I87">
         <v>9</v>
       </c>
+      <c r="J87" s="1">
+        <v>12</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="88" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4174,10 +4907,10 @@
         <v>504</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E88" s="1">
@@ -4187,17 +4920,24 @@
         <v>0</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I88">
         <v>9</v>
       </c>
+      <c r="J88" s="1">
+        <v>12</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="89" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4205,10 +4945,10 @@
         <v>516</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E89" s="1">
@@ -4218,17 +4958,24 @@
         <v>0</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I89">
         <v>9</v>
       </c>
+      <c r="J89" s="1">
+        <v>12</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="90" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4236,10 +4983,10 @@
         <v>528</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E90" s="1">
@@ -4249,17 +4996,24 @@
         <v>0</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I90">
         <v>9</v>
       </c>
+      <c r="J90" s="1">
+        <v>12</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="91" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4267,10 +5021,10 @@
         <v>540</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E91" s="1">
@@ -4280,17 +5034,24 @@
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I91">
         <v>10</v>
       </c>
+      <c r="J91" s="1">
+        <v>12</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="92" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4298,10 +5059,10 @@
         <v>552</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E92" s="1">
@@ -4311,17 +5072,24 @@
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I92">
         <v>10</v>
       </c>
+      <c r="J92" s="1">
+        <v>12</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="93" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -4329,10 +5097,10 @@
         <v>564</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E93" s="1">
@@ -4342,17 +5110,24 @@
         <v>0</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I93">
         <v>10</v>
       </c>
+      <c r="J93" s="1">
+        <v>12</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="94" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4360,10 +5135,10 @@
         <v>576</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E94" s="1">
@@ -4373,17 +5148,24 @@
         <v>0</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I94">
         <v>10</v>
       </c>
+      <c r="J94" s="1">
+        <v>12</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="95" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -4391,10 +5173,10 @@
         <v>588</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E95" s="1">
@@ -4404,17 +5186,24 @@
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I95">
         <v>10</v>
       </c>
+      <c r="J95" s="1">
+        <v>12</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="96" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4422,10 +5211,10 @@
         <v>600</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E96" s="1">
@@ -4435,17 +5224,24 @@
         <v>0</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I96">
         <v>11</v>
       </c>
+      <c r="J96" s="1">
+        <v>12</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="97" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4453,10 +5249,10 @@
         <v>612</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E97" s="1">
@@ -4466,17 +5262,24 @@
         <v>0</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I97">
         <v>11</v>
       </c>
+      <c r="J97" s="1">
+        <v>12</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="98" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4484,10 +5287,10 @@
         <v>624</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E98" s="1">
@@ -4497,17 +5300,24 @@
         <v>0</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I98">
         <v>11</v>
       </c>
+      <c r="J98" s="1">
+        <v>12</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="99" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -4515,10 +5325,10 @@
         <v>636</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E99" s="1">
@@ -4528,17 +5338,24 @@
         <v>0</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I99">
         <v>11</v>
       </c>
+      <c r="J99" s="1">
+        <v>12</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="100" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4546,10 +5363,10 @@
         <v>648</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E100" s="1">
@@ -4559,17 +5376,24 @@
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I100">
         <v>11</v>
       </c>
+      <c r="J100" s="1">
+        <v>12</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="101" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -4577,10 +5401,10 @@
         <v>660</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E101" s="1">
@@ -4590,17 +5414,24 @@
         <v>0</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I101">
         <v>12</v>
       </c>
+      <c r="J101" s="1">
+        <v>12</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -4608,10 +5439,10 @@
         <v>672</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E102" s="1">
@@ -4621,17 +5452,24 @@
         <v>0</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I102">
         <v>12</v>
       </c>
+      <c r="J102" s="1">
+        <v>12</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -4639,10 +5477,10 @@
         <v>684</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E103" s="1">
@@ -4652,17 +5490,24 @@
         <v>0</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I103">
         <v>12</v>
       </c>
+      <c r="J103" s="1">
+        <v>12</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4670,10 +5515,10 @@
         <v>696</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E104" s="1">
@@ -4683,17 +5528,24 @@
         <v>0</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I104">
         <v>12</v>
       </c>
+      <c r="J104" s="1">
+        <v>12</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -4701,10 +5553,10 @@
         <v>708</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E105" s="1">
@@ -4714,17 +5566,24 @@
         <v>0</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I105">
         <v>12</v>
       </c>
+      <c r="J105" s="1">
+        <v>120</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4732,7 +5591,7 @@
         <v>720</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D106" s="1">
         <f>1/3650</f>
@@ -4749,13 +5608,20 @@
         <v>2.7397260273972601E-4</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I106">
         <v>15</v>
       </c>
+      <c r="J106" s="1">
+        <v>120</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -4763,10 +5629,10 @@
         <v>840</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" ref="D107:D109" si="4">1/3650</f>
+        <f t="shared" ref="D107:D109" si="7">1/3650</f>
         <v>2.7397260273972601E-4</v>
       </c>
       <c r="E107" s="1">
@@ -4776,17 +5642,24 @@
         <v>0</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" ref="G107:G109" si="5">1/3650</f>
+        <f t="shared" ref="G107:G109" si="8">1/3650</f>
         <v>2.7397260273972601E-4</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I107">
         <v>16</v>
       </c>
+      <c r="J107" s="1">
+        <v>120</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4794,10 +5667,10 @@
         <v>960</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.7397260273972601E-4</v>
       </c>
       <c r="E108" s="1">
@@ -4807,17 +5680,24 @@
         <v>0</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.7397260273972601E-4</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I108">
         <v>16</v>
       </c>
+      <c r="J108" s="1">
+        <v>120</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -4825,10 +5705,10 @@
         <v>1080</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.7397260273972601E-4</v>
       </c>
       <c r="E109" s="1">
@@ -4838,49 +5718,38 @@
         <v>0</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.7397260273972601E-4</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="I109">
         <v>16</v>
       </c>
+      <c r="J109" s="1">
+        <v>120</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="1">
-        <v>109</v>
-      </c>
-      <c r="B110" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D110" s="3">
-        <v>0</v>
-      </c>
-      <c r="E110" s="1">
-        <v>0</v>
-      </c>
-      <c r="F110" s="1">
-        <v>0</v>
-      </c>
-      <c r="G110" s="3">
-        <v>0</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I110">
-        <v>16</v>
-      </c>
+    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="10"/>
+      <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4971,8 +5840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0439F58-195A-FC4B-BFD4-9EADB89FDAA6}">
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView zoomScale="40" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5077,7 +5946,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>995158.53700466652</v>
@@ -5506,8 +6375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391ED1A2-F1A6-2F4C-9536-9C7E989709D5}">
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AF1"/>
+    <sheetView topLeftCell="A91" zoomScale="75" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10316,7 +11185,7 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B50">
         <v>2.9692198788789635E-3</v>
@@ -10414,7 +11283,7 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B51">
         <v>2.2450090731595887E-3</v>
@@ -10512,7 +11381,7 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B52">
         <v>1.7021585254225018E-3</v>
@@ -10610,7 +11479,7 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B53">
         <v>1.2873457562425682E-3</v>
@@ -10708,7 +11577,7 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B54">
         <v>9.853473533961302E-4</v>
@@ -10806,7 +11675,7 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B55">
         <v>7.8829921246185324E-4</v>
@@ -10904,7 +11773,7 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B56">
         <v>7.0352678393842719E-4</v>
@@ -11002,7 +11871,7 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B57">
         <v>7.3824391348174649E-4</v>
@@ -11100,7 +11969,7 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B58">
         <v>7.3654257182248918E-4</v>
@@ -11198,7 +12067,7 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B59">
         <v>7.9879341610210731E-4</v>
@@ -11296,7 +12165,7 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B60">
         <v>9.1147934493334879E-4</v>
@@ -11394,7 +12263,7 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B61">
         <v>1.0719195565310653E-3</v>
@@ -11492,7 +12361,7 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B62">
         <v>1.2931117072927996E-3</v>
@@ -11590,7 +12459,7 @@
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B63">
         <v>1.6041817705103162E-3</v>
@@ -11688,7 +12557,7 @@
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B64">
         <v>2.0497265341742244E-3</v>
@@ -11786,7 +12655,7 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B65">
         <v>2.676580903307206E-3</v>
@@ -11884,7 +12753,7 @@
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B66">
         <v>3.5083138061456614E-3</v>
@@ -11982,7 +12851,7 @@
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B67">
         <v>4.5239347104653951E-3</v>
@@ -12080,7 +12949,7 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B68">
         <v>5.6553756759356328E-3</v>
@@ -12178,7 +13047,7 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B69">
         <v>6.8092270265930404E-3</v>
@@ -12276,7 +13145,7 @@
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B70">
         <v>7.8946991176817669E-3</v>
@@ -12374,7 +13243,7 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>8.8439939856285767E-3</v>
@@ -12472,7 +13341,7 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B72">
         <v>9.6199404359245712E-3</v>
@@ -12570,7 +13439,7 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B73">
         <v>1.0219822349359269E-2</v>
@@ -12668,7 +13537,7 @@
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B74">
         <v>1.0666541614018437E-2</v>
@@ -12766,7 +13635,7 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B75">
         <v>1.0994429720565494E-2</v>
@@ -12864,7 +13733,7 @@
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B76">
         <v>1.1239946914176752E-2</v>
@@ -12962,7 +13831,7 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B77">
         <v>1.1436452598432184E-2</v>
@@ -13060,7 +13929,7 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B78">
         <v>1.1609394112405032E-2</v>
@@ -13158,7 +14027,7 @@
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B79">
         <v>1.1778721441801556E-2</v>
@@ -13256,7 +14125,7 @@
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B80">
         <v>1.1966943107815495E-2</v>
@@ -13354,7 +14223,7 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B81">
         <v>1.2194290828075993E-2</v>
@@ -13452,7 +14321,7 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B82">
         <v>1.2470880902130568E-2</v>
@@ -13550,7 +14419,7 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B83">
         <v>1.2796638602314111E-2</v>
@@ -13648,7 +14517,7 @@
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B84">
         <v>1.3162544566603096E-2</v>
@@ -13746,7 +14615,7 @@
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B85">
         <v>1.3548428333937325E-2</v>
@@ -13844,7 +14713,7 @@
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B86">
         <v>1.3930247750814605E-2</v>
@@ -13942,7 +14811,7 @@
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B87">
         <v>1.4289497090854671E-2</v>
@@ -14040,7 +14909,7 @@
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B88">
         <v>1.4614806784683495E-2</v>
@@ -14138,7 +15007,7 @@
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B89">
         <v>1.490604339738796E-2</v>
@@ -14236,7 +15105,7 @@
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B90">
         <v>1.5172781087649153E-2</v>
@@ -14334,7 +15203,7 @@
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B91">
         <v>1.5430129990242082E-2</v>
@@ -14432,7 +15301,7 @@
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B92">
         <v>1.5693529650769682E-2</v>
@@ -14530,7 +15399,7 @@
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B93">
         <v>1.5977558725636731E-2</v>
@@ -14628,7 +15497,7 @@
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B94">
         <v>1.6288616790779677E-2</v>
@@ -14726,7 +15595,7 @@
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B95">
         <v>1.6629128727932166E-2</v>
@@ -14824,7 +15693,7 @@
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B96">
         <v>1.7002133466754842E-2</v>
@@ -14922,7 +15791,7 @@
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B97">
         <v>1.7414167897644661E-2</v>
@@ -15020,7 +15889,7 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B98">
         <v>1.7869670613775666E-2</v>
@@ -15118,7 +15987,7 @@
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B99">
         <v>1.8375925230803364E-2</v>
@@ -15216,7 +16085,7 @@
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B100">
         <v>1.8941669490926408E-2</v>
@@ -15314,7 +16183,7 @@
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B101">
         <v>1.9558101245170628E-2</v>
@@ -15412,7 +16281,7 @@
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A102" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B102">
         <v>2.020164446764092E-2</v>
@@ -15510,7 +16379,7 @@
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B103">
         <v>2.086066529955647E-2</v>
@@ -15608,7 +16477,7 @@
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A104" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B104">
         <v>2.1544109517972764E-2</v>
@@ -15706,7 +16575,7 @@
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B105">
         <v>2.2277129742224441E-2</v>
@@ -15804,7 +16673,7 @@
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A106" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B106">
         <v>2.887969122884846E-2</v>
@@ -15902,7 +16771,7 @@
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B107">
         <v>5.3763792845991289E-2</v>
@@ -16000,7 +16869,7 @@
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A108" s="10" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B108">
         <v>0.11390174303732555</v>
@@ -16098,7 +16967,7 @@
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="B109">
         <v>0.19442177668345256</v>
@@ -16195,102 +17064,7 @@
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A110" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B110">
-        <v>0.19442177668345256</v>
-      </c>
-      <c r="C110">
-        <v>0.19531461441170636</v>
-      </c>
-      <c r="D110">
-        <v>0.19665924863225237</v>
-      </c>
-      <c r="E110">
-        <v>0.20087281429920845</v>
-      </c>
-      <c r="F110">
-        <v>0.19537801839212474</v>
-      </c>
-      <c r="G110">
-        <v>0.19308034439250998</v>
-      </c>
-      <c r="H110">
-        <v>0.19553528286947999</v>
-      </c>
-      <c r="I110">
-        <v>0.19633635862338678</v>
-      </c>
-      <c r="J110">
-        <v>0.19585555659058337</v>
-      </c>
-      <c r="K110">
-        <v>0.19554638181247055</v>
-      </c>
-      <c r="L110">
-        <v>0.19528697954419535</v>
-      </c>
-      <c r="M110">
-        <v>0.19495997584837957</v>
-      </c>
-      <c r="N110">
-        <v>0.19464829967954125</v>
-      </c>
-      <c r="O110">
-        <v>0.19402519046548355</v>
-      </c>
-      <c r="P110">
-        <v>0.19312112050817662</v>
-      </c>
-      <c r="Q110">
-        <v>0.19209969507573266</v>
-      </c>
-      <c r="R110">
-        <v>0.19109866665248179</v>
-      </c>
-      <c r="S110">
-        <v>0.19022263611107287</v>
-      </c>
-      <c r="T110">
-        <v>0.18947587270135891</v>
-      </c>
-      <c r="U110">
-        <v>0.20466525264764387</v>
-      </c>
-      <c r="V110">
-        <v>0.24047132516208997</v>
-      </c>
-      <c r="W110">
-        <v>0.23418936792537573</v>
-      </c>
-      <c r="X110">
-        <v>0.20331958283193363</v>
-      </c>
-      <c r="Y110">
-        <v>0.20300237762330531</v>
-      </c>
-      <c r="Z110">
-        <v>0.20261912667136006</v>
-      </c>
-      <c r="AA110">
-        <v>0.20223706275880571</v>
-      </c>
-      <c r="AB110">
-        <v>0.20189563047896342</v>
-      </c>
-      <c r="AC110">
-        <v>0.20166896813016391</v>
-      </c>
-      <c r="AD110">
-        <v>0.20159900182093854</v>
-      </c>
-      <c r="AE110">
-        <v>0.20166064286861701</v>
-      </c>
-      <c r="AF110">
-        <v>0.2017488342550661</v>
-      </c>
+      <c r="A110" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AF110">
@@ -16342,7 +17116,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>60</v>
@@ -16415,8 +17189,8 @@
   </sheetPr>
   <dimension ref="A1:DF119"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A78" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16426,7 +17200,7 @@
   <sheetData>
     <row r="1" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -16573,188 +17347,186 @@
         <v>12</v>
       </c>
       <c r="AX1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BD1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="BE1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BF1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="BB1" s="10" t="s">
+      <c r="BG1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BH1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BI1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BK1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BL1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BM1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BN1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BO1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BP1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BR1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BS1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BT1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="BP1" s="10" t="s">
+      <c r="BU1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BV1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="BR1" s="10" t="s">
+      <c r="BW1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BX1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BT1" s="10" t="s">
+      <c r="BY1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BZ1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="CA1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CB1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="BX1" s="10" t="s">
+      <c r="CC1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CD1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BZ1" s="10" t="s">
+      <c r="CE1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="CG1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CH1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CI1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CJ1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CK1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="CE1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="CF1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CL1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="CH1" s="10" t="s">
+      <c r="CM1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CN1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="CJ1" s="10" t="s">
+      <c r="CO1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CP1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="CL1" s="10" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CR1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="CN1" s="10" t="s">
+      <c r="CS1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CT1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="CP1" s="10" t="s">
+      <c r="CU1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CV1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="CR1" s="10" t="s">
+      <c r="CW1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CX1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="CT1" s="10" t="s">
+      <c r="CY1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CZ1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="CV1" s="10" t="s">
+      <c r="DA1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="CW1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="CX1" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DB1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="CZ1" s="10" t="s">
+      <c r="DC1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DD1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="DB1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="DD1" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="DE1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="DF1" s="10" t="s">
-        <v>163</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="DF1" s="10"/>
     </row>
     <row r="2" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -17084,9 +17856,6 @@
       <c r="DE2">
         <v>3.1335781042489103E-2</v>
       </c>
-      <c r="DF2">
-        <v>1.6981623709271299E-2</v>
-      </c>
     </row>
     <row r="3" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -17416,9 +18185,6 @@
       <c r="DE3">
         <v>3.1335781042489103E-2</v>
       </c>
-      <c r="DF3">
-        <v>1.6981623709271299E-2</v>
-      </c>
     </row>
     <row r="4" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -17748,9 +18514,6 @@
       <c r="DE4">
         <v>3.1335781042489103E-2</v>
       </c>
-      <c r="DF4">
-        <v>1.6981623709271299E-2</v>
-      </c>
     </row>
     <row r="5" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -18080,9 +18843,6 @@
       <c r="DE5">
         <v>3.1335781042489103E-2</v>
       </c>
-      <c r="DF5">
-        <v>1.6981623709271299E-2</v>
-      </c>
     </row>
     <row r="6" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -18412,9 +19172,6 @@
       <c r="DE6">
         <v>3.1335781042489103E-2</v>
       </c>
-      <c r="DF6">
-        <v>1.6981623709271299E-2</v>
-      </c>
     </row>
     <row r="7" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -18744,9 +19501,6 @@
       <c r="DE7">
         <v>3.1335781042489103E-2</v>
       </c>
-      <c r="DF7">
-        <v>1.6981623709271299E-2</v>
-      </c>
     </row>
     <row r="8" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -19076,9 +19830,6 @@
       <c r="DE8">
         <v>3.1335781042489103E-2</v>
       </c>
-      <c r="DF8">
-        <v>1.6981623709271299E-2</v>
-      </c>
     </row>
     <row r="9" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
@@ -19408,9 +20159,6 @@
       <c r="DE9">
         <v>3.1335781042489103E-2</v>
       </c>
-      <c r="DF9">
-        <v>1.6981623709271299E-2</v>
-      </c>
     </row>
     <row r="10" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -19740,9 +20488,6 @@
       <c r="DE10">
         <v>3.1335781042489103E-2</v>
       </c>
-      <c r="DF10">
-        <v>1.6981623709271299E-2</v>
-      </c>
     </row>
     <row r="11" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
@@ -20072,9 +20817,6 @@
       <c r="DE11">
         <v>3.1335781042489103E-2</v>
       </c>
-      <c r="DF11">
-        <v>1.6981623709271299E-2</v>
-      </c>
     </row>
     <row r="12" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -20404,9 +21146,6 @@
       <c r="DE12">
         <v>3.1335781042489103E-2</v>
       </c>
-      <c r="DF12">
-        <v>1.6981623709271299E-2</v>
-      </c>
     </row>
     <row r="13" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
@@ -20736,9 +21475,6 @@
       <c r="DE13">
         <v>3.1335781042489103E-2</v>
       </c>
-      <c r="DF13">
-        <v>1.6981623709271299E-2</v>
-      </c>
     </row>
     <row r="14" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
@@ -21068,9 +21804,6 @@
       <c r="DE14">
         <v>3.1044441558246198E-2</v>
       </c>
-      <c r="DF14">
-        <v>1.69571084471518E-2</v>
-      </c>
     </row>
     <row r="15" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
@@ -21400,9 +22133,6 @@
       <c r="DE15">
         <v>3.1044441558246198E-2</v>
       </c>
-      <c r="DF15">
-        <v>1.69571084471518E-2</v>
-      </c>
     </row>
     <row r="16" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -21732,11 +22462,8 @@
       <c r="DE16">
         <v>3.1044441558246198E-2</v>
       </c>
-      <c r="DF16">
-        <v>1.69571084471518E-2</v>
-      </c>
     </row>
-    <row r="17" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -22064,11 +22791,8 @@
       <c r="DE17">
         <v>3.1044441558246198E-2</v>
       </c>
-      <c r="DF17">
-        <v>1.69571084471518E-2</v>
-      </c>
     </row>
-    <row r="18" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -22396,11 +23120,8 @@
       <c r="DE18">
         <v>3.1044441558246198E-2</v>
       </c>
-      <c r="DF18">
-        <v>1.69571084471518E-2</v>
-      </c>
     </row>
-    <row r="19" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
@@ -22728,11 +23449,8 @@
       <c r="DE19">
         <v>3.1044441558246198E-2</v>
       </c>
-      <c r="DF19">
-        <v>1.69571084471518E-2</v>
-      </c>
     </row>
-    <row r="20" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
@@ -23060,11 +23778,8 @@
       <c r="DE20">
         <v>3.1044441558246198E-2</v>
       </c>
-      <c r="DF20">
-        <v>1.69571084471518E-2</v>
-      </c>
     </row>
-    <row r="21" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -23392,11 +24107,8 @@
       <c r="DE21">
         <v>3.1044441558246198E-2</v>
       </c>
-      <c r="DF21">
-        <v>1.69571084471518E-2</v>
-      </c>
     </row>
-    <row r="22" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
@@ -23724,11 +24436,8 @@
       <c r="DE22">
         <v>3.1044441558246198E-2</v>
       </c>
-      <c r="DF22">
-        <v>1.69571084471518E-2</v>
-      </c>
     </row>
-    <row r="23" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
@@ -24056,11 +24765,8 @@
       <c r="DE23">
         <v>3.1044441558246198E-2</v>
       </c>
-      <c r="DF23">
-        <v>1.69571084471518E-2</v>
-      </c>
     </row>
-    <row r="24" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -24388,11 +25094,8 @@
       <c r="DE24">
         <v>3.1044441558246198E-2</v>
       </c>
-      <c r="DF24">
-        <v>1.69571084471518E-2</v>
-      </c>
     </row>
-    <row r="25" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
@@ -24720,11 +25423,8 @@
       <c r="DE25">
         <v>3.1044441558246198E-2</v>
       </c>
-      <c r="DF25">
-        <v>1.69571084471518E-2</v>
-      </c>
     </row>
-    <row r="26" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
@@ -25052,11 +25752,8 @@
       <c r="DE26">
         <v>3.0995295720690999E-2</v>
       </c>
-      <c r="DF26">
-        <v>1.69536551160284E-2</v>
-      </c>
     </row>
-    <row r="27" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -25384,11 +26081,8 @@
       <c r="DE27">
         <v>3.0995295720690999E-2</v>
       </c>
-      <c r="DF27">
-        <v>1.69536551160284E-2</v>
-      </c>
     </row>
-    <row r="28" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -25716,11 +26410,8 @@
       <c r="DE28">
         <v>3.0995295720690999E-2</v>
       </c>
-      <c r="DF28">
-        <v>1.69536551160284E-2</v>
-      </c>
     </row>
-    <row r="29" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
@@ -26048,11 +26739,8 @@
       <c r="DE29">
         <v>3.0995295720690999E-2</v>
       </c>
-      <c r="DF29">
-        <v>1.69536551160284E-2</v>
-      </c>
     </row>
-    <row r="30" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
@@ -26380,11 +27068,8 @@
       <c r="DE30">
         <v>3.0995295720690999E-2</v>
       </c>
-      <c r="DF30">
-        <v>1.69536551160284E-2</v>
-      </c>
     </row>
-    <row r="31" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
@@ -26712,11 +27397,8 @@
       <c r="DE31">
         <v>3.0995295720690999E-2</v>
       </c>
-      <c r="DF31">
-        <v>1.69536551160284E-2</v>
-      </c>
     </row>
-    <row r="32" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -27044,11 +27726,8 @@
       <c r="DE32">
         <v>3.0995295720690999E-2</v>
       </c>
-      <c r="DF32">
-        <v>1.69536551160284E-2</v>
-      </c>
     </row>
-    <row r="33" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>44</v>
       </c>
@@ -27376,11 +28055,8 @@
       <c r="DE33">
         <v>3.0995295720690999E-2</v>
       </c>
-      <c r="DF33">
-        <v>1.69536551160284E-2</v>
-      </c>
     </row>
-    <row r="34" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
@@ -27708,11 +28384,8 @@
       <c r="DE34">
         <v>3.0995295720690999E-2</v>
       </c>
-      <c r="DF34">
-        <v>1.69536551160284E-2</v>
-      </c>
     </row>
-    <row r="35" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -28040,11 +28713,8 @@
       <c r="DE35">
         <v>3.0995295720690999E-2</v>
       </c>
-      <c r="DF35">
-        <v>1.69536551160284E-2</v>
-      </c>
     </row>
-    <row r="36" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>47</v>
       </c>
@@ -28372,11 +29042,8 @@
       <c r="DE36">
         <v>3.0995295720690999E-2</v>
       </c>
-      <c r="DF36">
-        <v>1.69536551160284E-2</v>
-      </c>
     </row>
-    <row r="37" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
@@ -28704,11 +29371,8 @@
       <c r="DE37">
         <v>3.0995295720690999E-2</v>
       </c>
-      <c r="DF37">
-        <v>1.69536551160284E-2</v>
-      </c>
     </row>
-    <row r="38" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
@@ -29036,11 +29700,8 @@
       <c r="DE38">
         <v>3.1392666769874303E-2</v>
       </c>
-      <c r="DF38">
-        <v>1.69872926812316E-2</v>
-      </c>
     </row>
-    <row r="39" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>50</v>
       </c>
@@ -29368,11 +30029,8 @@
       <c r="DE39">
         <v>3.1392666769874303E-2</v>
       </c>
-      <c r="DF39">
-        <v>1.69872926812316E-2</v>
-      </c>
     </row>
-    <row r="40" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
@@ -29700,11 +30358,8 @@
       <c r="DE40">
         <v>3.1392666769874303E-2</v>
       </c>
-      <c r="DF40">
-        <v>1.69872926812316E-2</v>
-      </c>
     </row>
-    <row r="41" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>52</v>
       </c>
@@ -30032,11 +30687,8 @@
       <c r="DE41">
         <v>3.1392666769874303E-2</v>
       </c>
-      <c r="DF41">
-        <v>1.69872926812316E-2</v>
-      </c>
     </row>
-    <row r="42" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>53</v>
       </c>
@@ -30364,11 +31016,8 @@
       <c r="DE42">
         <v>3.1392666769874303E-2</v>
       </c>
-      <c r="DF42">
-        <v>1.69872926812316E-2</v>
-      </c>
     </row>
-    <row r="43" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
@@ -30696,11 +31345,8 @@
       <c r="DE43">
         <v>3.1392666769874303E-2</v>
       </c>
-      <c r="DF43">
-        <v>1.69872926812316E-2</v>
-      </c>
     </row>
-    <row r="44" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>55</v>
       </c>
@@ -31028,11 +31674,8 @@
       <c r="DE44">
         <v>3.1392666769874303E-2</v>
       </c>
-      <c r="DF44">
-        <v>1.69872926812316E-2</v>
-      </c>
     </row>
-    <row r="45" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>56</v>
       </c>
@@ -31360,11 +32003,8 @@
       <c r="DE45">
         <v>3.1392666769874303E-2</v>
       </c>
-      <c r="DF45">
-        <v>1.69872926812316E-2</v>
-      </c>
     </row>
-    <row r="46" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>57</v>
       </c>
@@ -31692,11 +32332,8 @@
       <c r="DE46">
         <v>3.1392666769874303E-2</v>
       </c>
-      <c r="DF46">
-        <v>1.69872926812316E-2</v>
-      </c>
     </row>
-    <row r="47" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>58</v>
       </c>
@@ -32024,11 +32661,8 @@
       <c r="DE47">
         <v>3.1392666769874303E-2</v>
       </c>
-      <c r="DF47">
-        <v>1.69872926812316E-2</v>
-      </c>
     </row>
-    <row r="48" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>59</v>
       </c>
@@ -32356,11 +32990,8 @@
       <c r="DE48">
         <v>3.1392666769874303E-2</v>
       </c>
-      <c r="DF48">
-        <v>1.69872926812316E-2</v>
-      </c>
     </row>
-    <row r="49" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -32688,13 +33319,10 @@
       <c r="DE49">
         <v>3.1392666769874303E-2</v>
       </c>
-      <c r="DF49">
-        <v>1.69872926812316E-2</v>
-      </c>
     </row>
-    <row r="50" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B50">
         <v>3.0795508854560398</v>
@@ -33020,13 +33648,10 @@
       <c r="DE50">
         <v>3.1392666769874303E-2</v>
       </c>
-      <c r="DF50">
-        <v>1.69872926812316E-2</v>
-      </c>
     </row>
-    <row r="51" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B51">
         <v>1.5403664321883299</v>
@@ -33352,13 +33977,10 @@
       <c r="DE51">
         <v>3.7089748060827502E-2</v>
       </c>
-      <c r="DF51">
-        <v>1.4782865575141199E-2</v>
-      </c>
     </row>
-    <row r="52" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B52">
         <v>1.5388768904797301</v>
@@ -33684,13 +34306,10 @@
       <c r="DE52">
         <v>3.7048880301106001E-2</v>
       </c>
-      <c r="DF52">
-        <v>1.4781688032536801E-2</v>
-      </c>
     </row>
-    <row r="53" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B53">
         <v>1.51885470776624</v>
@@ -34016,13 +34635,10 @@
       <c r="DE53">
         <v>3.6499636590732999E-2</v>
       </c>
-      <c r="DF53">
-        <v>1.4765857243645901E-2</v>
-      </c>
     </row>
-    <row r="54" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B54">
         <v>1.51632559194751</v>
@@ -34348,13 +34964,10 @@
       <c r="DE54">
         <v>3.6430270584921098E-2</v>
       </c>
-      <c r="DF54">
-        <v>1.47638573656955E-2</v>
-      </c>
     </row>
-    <row r="55" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B55">
         <v>1.5222530647817201</v>
@@ -34680,13 +35293,10 @@
       <c r="DE55">
         <v>3.6592847429971299E-2</v>
       </c>
-      <c r="DF55">
-        <v>1.4768544424504799E-2</v>
-      </c>
     </row>
-    <row r="56" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B56">
         <v>0.72491326866870698</v>
@@ -35012,13 +35622,10 @@
       <c r="DE56">
         <v>5.1475109010460401E-2</v>
       </c>
-      <c r="DF56">
-        <v>1.7828158552626601E-2</v>
-      </c>
     </row>
-    <row r="57" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B57">
         <v>0.73216305472440801</v>
@@ -35344,13 +35951,10 @@
       <c r="DE57">
         <v>5.2045720362744699E-2</v>
       </c>
-      <c r="DF57">
-        <v>1.7844713260340501E-2</v>
-      </c>
     </row>
-    <row r="58" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B58">
         <v>0.73613405330232395</v>
@@ -35676,13 +36280,10 @@
       <c r="DE58">
         <v>5.2358191762239797E-2</v>
       </c>
-      <c r="DF58">
-        <v>1.7853777369306899E-2</v>
-      </c>
     </row>
-    <row r="59" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B59">
         <v>0.72697082869352703</v>
@@ -36008,13 +36609,10 @@
       <c r="DE59">
         <v>5.1637071649500398E-2</v>
       </c>
-      <c r="DF59">
-        <v>1.7832857780200599E-2</v>
-      </c>
     </row>
-    <row r="60" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B60">
         <v>0.73558306655608297</v>
@@ -36340,13 +36938,10 @@
       <c r="DE60">
         <v>5.2314838800319598E-2</v>
       </c>
-      <c r="DF60">
-        <v>1.78525198538136E-2</v>
-      </c>
     </row>
-    <row r="61" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B61">
         <v>0.48114219680790699</v>
@@ -36672,13 +37267,10 @@
       <c r="DE61">
         <v>3.7941717327015997E-2</v>
       </c>
-      <c r="DF61">
-        <v>9.2389076778452497E-3</v>
-      </c>
     </row>
-    <row r="62" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B62">
         <v>0.49059328010569597</v>
@@ -37004,13 +37596,10 @@
       <c r="DE62">
         <v>3.8859746864799302E-2</v>
       </c>
-      <c r="DF62">
-        <v>9.2656156759882407E-3</v>
-      </c>
     </row>
-    <row r="63" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B63">
         <v>0.50372116267179201</v>
@@ -37336,13 +37925,10 @@
       <c r="DE63">
         <v>4.0134929239190403E-2</v>
       </c>
-      <c r="DF63">
-        <v>9.3027136844833908E-3</v>
-      </c>
     </row>
-    <row r="64" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B64">
         <v>0.51943395542034998</v>
@@ -37668,13 +38254,10 @@
       <c r="DE64">
         <v>4.1661208891250197E-2</v>
       </c>
-      <c r="DF64">
-        <v>9.3471158387219595E-3</v>
-      </c>
     </row>
-    <row r="65" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B65">
         <v>0.53421028179532404</v>
@@ -38000,13 +38583,10 @@
       <c r="DE65">
         <v>4.3096534159230898E-2</v>
       </c>
-      <c r="DF65">
-        <v>9.3888710945016392E-3</v>
-      </c>
     </row>
-    <row r="66" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B66">
         <v>0.91568282876648499</v>
@@ -38332,13 +38912,10 @@
       <c r="DE66">
         <v>2.3378554973498899E-2</v>
       </c>
-      <c r="DF66">
-        <v>1.4248466186364699E-2</v>
-      </c>
     </row>
-    <row r="67" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B67">
         <v>0.91211805795207801</v>
@@ -38664,13 +39241,10 @@
       <c r="DE67">
         <v>2.3322196940289398E-2</v>
       </c>
-      <c r="DF67">
-        <v>1.4246843645228401E-2</v>
-      </c>
     </row>
-    <row r="68" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B68">
         <v>0.90117111766816804</v>
@@ -38996,13 +39570,10 @@
       <c r="DE68">
         <v>2.3149131126963599E-2</v>
       </c>
-      <c r="DF68">
-        <v>1.4241860230648599E-2</v>
-      </c>
     </row>
-    <row r="69" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B69">
         <v>0.889297562719915</v>
@@ -39328,13 +39899,10 @@
       <c r="DE69">
         <v>2.2961420110532899E-2</v>
       </c>
-      <c r="DF69">
-        <v>1.4236453643917801E-2</v>
-      </c>
     </row>
-    <row r="70" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B70">
         <v>0.88093788721448096</v>
@@ -39660,13 +40228,10 @@
       <c r="DE70">
         <v>2.2829263393445501E-2</v>
       </c>
-      <c r="DF70">
-        <v>1.4232646270699201E-2</v>
-      </c>
     </row>
-    <row r="71" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>1.3803202231038401</v>
@@ -39992,13 +40557,10 @@
       <c r="DE71">
         <v>1.7010468301256E-2</v>
       </c>
-      <c r="DF71">
-        <v>9.0383423921228303E-3</v>
-      </c>
     </row>
-    <row r="72" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B72">
         <v>1.3417768688783001</v>
@@ -40324,13 +40886,10 @@
       <c r="DE72">
         <v>1.65417370487418E-2</v>
       </c>
-      <c r="DF72">
-        <v>8.7902181816634593E-3</v>
-      </c>
     </row>
-    <row r="73" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B73">
         <v>1.3234313191504099</v>
@@ -40656,13 +41215,10 @@
       <c r="DE73">
         <v>1.6318865387111098E-2</v>
       </c>
-      <c r="DF73">
-        <v>8.6743736266040993E-3</v>
-      </c>
     </row>
-    <row r="74" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B74">
         <v>1.31263998964059</v>
@@ -40988,13 +41544,10 @@
       <c r="DE74">
         <v>1.6187843619427301E-2</v>
       </c>
-      <c r="DF74">
-        <v>8.6074086420239396E-3</v>
-      </c>
     </row>
-    <row r="75" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B75">
         <v>1.30103307469737</v>
@@ -41320,13 +41873,10 @@
       <c r="DE75">
         <v>1.6046987423676402E-2</v>
       </c>
-      <c r="DF75">
-        <v>8.5367466494528799E-3</v>
-      </c>
     </row>
-    <row r="76" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B76">
         <v>1.29108420339538</v>
@@ -41652,13 +42202,10 @@
       <c r="DE76">
         <v>2.0171546372933599E-2</v>
       </c>
-      <c r="DF76">
-        <v>1.07616830946004E-2</v>
-      </c>
     </row>
-    <row r="77" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B77">
         <v>1.28256370573981</v>
@@ -41984,13 +42531,10 @@
       <c r="DE77">
         <v>2.0060737789693899E-2</v>
       </c>
-      <c r="DF77">
-        <v>1.0759452964143899E-2</v>
-      </c>
     </row>
-    <row r="78" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B78">
         <v>1.27327544795269</v>
@@ -42316,13 +42860,10 @@
       <c r="DE78">
         <v>1.99399317891834E-2</v>
       </c>
-      <c r="DF78">
-        <v>1.07568623447372E-2</v>
-      </c>
     </row>
-    <row r="79" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B79">
         <v>1.26135613379461</v>
@@ -42648,13 +43189,10 @@
       <c r="DE79">
         <v>1.9784886167870299E-2</v>
       </c>
-      <c r="DF79">
-        <v>1.07533338657463E-2</v>
-      </c>
     </row>
-    <row r="80" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B80">
         <v>1.2615938860392599</v>
@@ -42980,13 +43518,10 @@
       <c r="DE80">
         <v>1.9787979043005801E-2</v>
       </c>
-      <c r="DF80">
-        <v>1.07534062160252E-2</v>
-      </c>
     </row>
-    <row r="81" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B81">
         <v>1.0806798146049601</v>
@@ -43312,13 +43847,10 @@
       <c r="DE81">
         <v>2.21471048456677E-2</v>
       </c>
-      <c r="DF81">
-        <v>8.0987705476752402E-3</v>
-      </c>
     </row>
-    <row r="82" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B82">
         <v>1.11057849929042</v>
@@ -43644,13 +44176,10 @@
       <c r="DE82">
         <v>2.2877550998576201E-2</v>
       </c>
-      <c r="DF82">
-        <v>8.0751144208030499E-3</v>
-      </c>
     </row>
-    <row r="83" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B83">
         <v>1.1443655958197501</v>
@@ -43976,13 +44505,10 @@
       <c r="DE83">
         <v>2.3703011698396802E-2</v>
       </c>
-      <c r="DF83">
-        <v>8.0481902871387106E-3</v>
-      </c>
     </row>
-    <row r="84" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B84">
         <v>1.1734478777728301</v>
@@ -44308,13 +44834,10 @@
       <c r="DE84">
         <v>2.4413554434707101E-2</v>
       </c>
-      <c r="DF84">
-        <v>8.0507458077544204E-3</v>
-      </c>
     </row>
-    <row r="85" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B85">
         <v>1.20078201033138</v>
@@ -44640,13 +45163,10 @@
       <c r="DE85">
         <v>2.5081415857797201E-2</v>
       </c>
-      <c r="DF85">
-        <v>8.0948617153045604E-3</v>
-      </c>
     </row>
-    <row r="86" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B86">
         <v>0.73835707780714999</v>
@@ -44972,13 +45492,10 @@
       <c r="DE86">
         <v>2.8292409377635799E-2</v>
       </c>
-      <c r="DF86">
-        <v>9.4576448726615397E-3</v>
-      </c>
     </row>
-    <row r="87" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B87">
         <v>0.76100348365669901</v>
@@ -45304,13 +45821,10 @@
       <c r="DE87">
         <v>2.9399795106329601E-2</v>
       </c>
-      <c r="DF87">
-        <v>9.4897979643871998E-3</v>
-      </c>
     </row>
-    <row r="88" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B88">
         <v>0.79283538067102699</v>
@@ -45636,13 +46150,10 @@
       <c r="DE88">
         <v>3.0956354292055899E-2</v>
       </c>
-      <c r="DF88">
-        <v>9.5349834848875298E-3</v>
-      </c>
     </row>
-    <row r="89" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B89">
         <v>0.84239788828037898</v>
@@ -45968,13 +46479,10 @@
       <c r="DE89">
         <v>3.3379955251357701E-2</v>
       </c>
-      <c r="DF89">
-        <v>9.6053131718655503E-3</v>
-      </c>
     </row>
-    <row r="90" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B90">
         <v>0.90345473948639698</v>
@@ -46300,13 +46808,10 @@
       <c r="DE90">
         <v>3.6365667007614302E-2</v>
       </c>
-      <c r="DF90">
-        <v>9.6919004891345105E-3</v>
-      </c>
     </row>
-    <row r="91" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B91">
         <v>0.55896183669742106</v>
@@ -46632,13 +47137,10 @@
       <c r="DE91">
         <v>4.2137397037541102E-2</v>
       </c>
-      <c r="DF91">
-        <v>1.55018203535486E-2</v>
-      </c>
     </row>
-    <row r="92" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B92">
         <v>0.58272587527472397</v>
@@ -46964,13 +47466,10 @@
       <c r="DE92">
         <v>4.3985161673895302E-2</v>
       </c>
-      <c r="DF92">
-        <v>1.5555578799075501E-2</v>
-      </c>
     </row>
-    <row r="93" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B93">
         <v>0.58917433174133704</v>
@@ -47296,13 +47795,10 @@
       <c r="DE93">
         <v>4.4486562065960501E-2</v>
       </c>
-      <c r="DF93">
-        <v>1.5570166266719801E-2</v>
-      </c>
     </row>
-    <row r="94" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B94">
         <v>0.57945224777562099</v>
@@ -47628,13 +48124,10 @@
       <c r="DE94">
         <v>4.3730620889577E-2</v>
       </c>
-      <c r="DF94">
-        <v>1.55481733027008E-2</v>
-      </c>
     </row>
-    <row r="95" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B95">
         <v>0.56127975800450902</v>
@@ -47960,13 +48453,10 @@
       <c r="DE95">
         <v>4.2317625445611698E-2</v>
       </c>
-      <c r="DF95">
-        <v>1.5507063918914399E-2</v>
-      </c>
     </row>
-    <row r="96" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B96">
         <v>0.58477024325599503</v>
@@ -48292,13 +48782,10 @@
       <c r="DE96">
         <v>4.3079566792009E-2</v>
       </c>
-      <c r="DF96">
-        <v>1.64614068361735E-2</v>
-      </c>
     </row>
-    <row r="97" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B97">
         <v>0.57175272386314202</v>
@@ -48624,13 +49111,10 @@
       <c r="DE97">
         <v>4.2066243400900899E-2</v>
       </c>
-      <c r="DF97">
-        <v>1.6431924613697999E-2</v>
-      </c>
     </row>
-    <row r="98" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B98">
         <v>0.56538816504662204</v>
@@ -48956,13 +49440,10 @@
       <c r="DE98">
         <v>4.1570814265270602E-2</v>
       </c>
-      <c r="DF98">
-        <v>1.64175102148073E-2</v>
-      </c>
     </row>
-    <row r="99" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B99">
         <v>0.56539603100711</v>
@@ -49288,13 +49769,10 @@
       <c r="DE99">
         <v>4.15714265631872E-2</v>
       </c>
-      <c r="DF99">
-        <v>1.6417528029515099E-2</v>
-      </c>
     </row>
-    <row r="100" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B100">
         <v>0.572598454392925</v>
@@ -49620,13 +50098,10 @@
       <c r="DE100">
         <v>4.2132077021418302E-2</v>
       </c>
-      <c r="DF100">
-        <v>1.6433840023380501E-2</v>
-      </c>
     </row>
-    <row r="101" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B101">
         <v>0.67334452598216998</v>
@@ -49952,13 +50427,10 @@
       <c r="DE101">
         <v>2.9169558334094899E-2</v>
       </c>
-      <c r="DF101">
-        <v>1.52505933326371E-2</v>
-      </c>
     </row>
-    <row r="102" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B102">
         <v>0.69089640016937903</v>
@@ -50284,13 +50756,10 @@
       <c r="DE102">
         <v>3.00412033543653E-2</v>
       </c>
-      <c r="DF102">
-        <v>1.5275940590190201E-2</v>
-      </c>
     </row>
-    <row r="103" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B103">
         <v>0.71301157888869005</v>
@@ -50616,13 +51085,10 @@
       <c r="DE103">
         <v>3.1139494013513E-2</v>
       </c>
-      <c r="DF103">
-        <v>1.53078777063915E-2</v>
-      </c>
     </row>
-    <row r="104" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B104">
         <v>0.73929618341876402</v>
@@ -50948,13 +51414,10 @@
       <c r="DE104">
         <v>3.2444884486822902E-2</v>
       </c>
-      <c r="DF104">
-        <v>1.53458356561886E-2</v>
-      </c>
     </row>
-    <row r="105" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B105">
         <v>0.76950046541587702</v>
@@ -51280,13 +51743,10 @@
       <c r="DE105">
         <v>3.3944985718476102E-2</v>
       </c>
-      <c r="DF105">
-        <v>1.53894534358574E-2</v>
-      </c>
     </row>
-    <row r="106" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B106">
         <v>0.279310077925983</v>
@@ -51612,13 +52072,10 @@
       <c r="DE106">
         <v>1.66590456510671E-2</v>
       </c>
-      <c r="DF106">
-        <v>1.4847221090900101E-2</v>
-      </c>
     </row>
-    <row r="107" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B107">
         <v>0.131816831188377</v>
@@ -51944,13 +52401,10 @@
       <c r="DE107">
         <v>4.4868691081454901E-2</v>
       </c>
-      <c r="DF107">
-        <v>4.2162361314220499E-2</v>
-      </c>
     </row>
-    <row r="108" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B108">
         <v>0.16248190524491299</v>
@@ -52276,13 +52730,10 @@
       <c r="DE108">
         <v>4.6226562977109198E-2</v>
       </c>
-      <c r="DF108">
-        <v>3.8437070758178198E-2</v>
-      </c>
     </row>
-    <row r="109" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="B109">
         <v>0.27893747218213799</v>
@@ -52608,375 +53059,43 @@
       <c r="DE109">
         <v>7.6407120459443797E-2</v>
       </c>
-      <c r="DF109">
-        <v>3.9315610966031797E-2</v>
-      </c>
     </row>
-    <row r="110" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B110">
-        <v>5.1921062952891903</v>
-      </c>
-      <c r="C110">
-        <v>5.1921062952891903</v>
-      </c>
-      <c r="D110">
-        <v>5.1921062952891903</v>
-      </c>
-      <c r="E110">
-        <v>5.1921062952891903</v>
-      </c>
-      <c r="F110">
-        <v>5.1921062952891903</v>
-      </c>
-      <c r="G110">
-        <v>5.1921062952891903</v>
-      </c>
-      <c r="H110">
-        <v>5.1921062952891903</v>
-      </c>
-      <c r="I110">
-        <v>5.1921062952891903</v>
-      </c>
-      <c r="J110">
-        <v>5.1921062952891903</v>
-      </c>
-      <c r="K110">
-        <v>5.1921062952891903</v>
-      </c>
-      <c r="L110">
-        <v>5.1921062952891903</v>
-      </c>
-      <c r="M110">
-        <v>5.1921062952891903</v>
-      </c>
-      <c r="N110">
-        <v>5.2923838753772898</v>
-      </c>
-      <c r="O110">
-        <v>5.2923838753772898</v>
-      </c>
-      <c r="P110">
-        <v>5.2923838753772898</v>
-      </c>
-      <c r="Q110">
-        <v>5.2923838753772898</v>
-      </c>
-      <c r="R110">
-        <v>5.2923838753772898</v>
-      </c>
-      <c r="S110">
-        <v>5.2923838753772898</v>
-      </c>
-      <c r="T110">
-        <v>5.2923838753772898</v>
-      </c>
-      <c r="U110">
-        <v>5.2923838753772898</v>
-      </c>
-      <c r="V110">
-        <v>5.2923838753772898</v>
-      </c>
-      <c r="W110">
-        <v>5.2923838753772898</v>
-      </c>
-      <c r="X110">
-        <v>5.2923838753772898</v>
-      </c>
-      <c r="Y110">
-        <v>5.2923838753772898</v>
-      </c>
-      <c r="Z110">
-        <v>5.3099071044666504</v>
-      </c>
-      <c r="AA110">
-        <v>5.3099071044666504</v>
-      </c>
-      <c r="AB110">
-        <v>5.3099071044666504</v>
-      </c>
-      <c r="AC110">
-        <v>5.3099071044666504</v>
-      </c>
-      <c r="AD110">
-        <v>5.3099071044666504</v>
-      </c>
-      <c r="AE110">
-        <v>5.3099071044666504</v>
-      </c>
-      <c r="AF110">
-        <v>5.3099071044666504</v>
-      </c>
-      <c r="AG110">
-        <v>5.3099071044666504</v>
-      </c>
-      <c r="AH110">
-        <v>5.3099071044666504</v>
-      </c>
-      <c r="AI110">
-        <v>5.3099071044666504</v>
-      </c>
-      <c r="AJ110">
-        <v>5.3099071044666504</v>
-      </c>
-      <c r="AK110">
-        <v>5.3099071044666504</v>
-      </c>
-      <c r="AL110">
-        <v>5.1732490528275603</v>
-      </c>
-      <c r="AM110">
-        <v>5.1732490528275603</v>
-      </c>
-      <c r="AN110">
-        <v>5.1732490528275603</v>
-      </c>
-      <c r="AO110">
-        <v>5.1732490528275603</v>
-      </c>
-      <c r="AP110">
-        <v>5.1732490528275603</v>
-      </c>
-      <c r="AQ110">
-        <v>5.1732490528275603</v>
-      </c>
-      <c r="AR110">
-        <v>5.1732490528275603</v>
-      </c>
-      <c r="AS110">
-        <v>5.1732490528275603</v>
-      </c>
-      <c r="AT110">
-        <v>5.1732490528275603</v>
-      </c>
-      <c r="AU110">
-        <v>5.1732490528275603</v>
-      </c>
-      <c r="AV110">
-        <v>5.1732490528275603</v>
-      </c>
-      <c r="AW110">
-        <v>5.1732490528275603</v>
-      </c>
-      <c r="AX110">
-        <v>5.1732490528275603</v>
-      </c>
-      <c r="AY110">
-        <v>4.36188156037983</v>
-      </c>
-      <c r="AZ110">
-        <v>4.3693054445499797</v>
-      </c>
-      <c r="BA110">
-        <v>4.4717081497367497</v>
-      </c>
-      <c r="BB110">
-        <v>4.48499938621217</v>
-      </c>
-      <c r="BC110">
-        <v>4.4539771579525498</v>
-      </c>
-      <c r="BD110">
-        <v>5.3265514416301301</v>
-      </c>
-      <c r="BE110">
-        <v>5.2451239406868702</v>
-      </c>
-      <c r="BF110">
-        <v>5.2016410313992703</v>
-      </c>
-      <c r="BG110">
-        <v>5.3031678835059504</v>
-      </c>
-      <c r="BH110">
-        <v>5.2076282278823802</v>
-      </c>
-      <c r="BI110">
-        <v>2.5574804845365899</v>
-      </c>
-      <c r="BJ110">
-        <v>2.4876244449364</v>
-      </c>
-      <c r="BK110">
-        <v>2.3972927810555902</v>
-      </c>
-      <c r="BL110">
-        <v>2.2982742574756099</v>
-      </c>
-      <c r="BM110">
-        <v>2.2130996970413701</v>
-      </c>
-      <c r="BN110">
-        <v>3.3179828204252599</v>
-      </c>
-      <c r="BO110">
-        <v>3.3376162205793598</v>
-      </c>
-      <c r="BP110">
-        <v>3.39941483939098</v>
-      </c>
-      <c r="BQ110">
-        <v>3.4691341503778701</v>
-      </c>
-      <c r="BR110">
-        <v>3.5199929647463502</v>
-      </c>
-      <c r="BS110">
-        <v>2.3333061029032902</v>
-      </c>
-      <c r="BT110">
-        <v>2.38447659645573</v>
-      </c>
-      <c r="BU110">
-        <v>2.4113273930713199</v>
-      </c>
-      <c r="BV110">
-        <v>2.42808367990237</v>
-      </c>
-      <c r="BW110">
-        <v>2.4470587080645698</v>
-      </c>
-      <c r="BX110">
-        <v>3.1481515002548202</v>
-      </c>
-      <c r="BY110">
-        <v>3.1840486698002799</v>
-      </c>
-      <c r="BZ110">
-        <v>3.2240943699270801</v>
-      </c>
-      <c r="CA110">
-        <v>3.2769507156808202</v>
-      </c>
-      <c r="CB110">
-        <v>3.2758797247800602</v>
-      </c>
-      <c r="CC110">
-        <v>2.4134570824504098</v>
-      </c>
-      <c r="CD110">
-        <v>2.2901704954702198</v>
-      </c>
-      <c r="CE110">
-        <v>2.1643888463402998</v>
-      </c>
-      <c r="CF110">
-        <v>2.0727262535577</v>
-      </c>
-      <c r="CG110">
-        <v>2.0037495243478198</v>
-      </c>
-      <c r="CH110">
-        <v>2.23730022202757</v>
-      </c>
-      <c r="CI110">
-        <v>2.1236730942697601</v>
-      </c>
-      <c r="CJ110">
-        <v>1.98324015741473</v>
-      </c>
-      <c r="CK110">
-        <v>1.80012042257252</v>
-      </c>
-      <c r="CL110">
-        <v>1.61894041728134</v>
-      </c>
-      <c r="CM110">
-        <v>2.33948084387904</v>
-      </c>
-      <c r="CN110">
-        <v>2.19945233921396</v>
-      </c>
-      <c r="CO110">
-        <v>2.1644519663904198</v>
-      </c>
-      <c r="CP110">
-        <v>2.21768334989719</v>
-      </c>
-      <c r="CQ110">
-        <v>2.3249978797084099</v>
-      </c>
-      <c r="CR110">
-        <v>2.5998120776613498</v>
-      </c>
-      <c r="CS110">
-        <v>2.6947577499728701</v>
-      </c>
-      <c r="CT110">
-        <v>2.7438815034626098</v>
-      </c>
-      <c r="CU110">
-        <v>2.7438196321643802</v>
-      </c>
-      <c r="CV110">
-        <v>2.6883685058181701</v>
-      </c>
-      <c r="CW110">
-        <v>2.3926263319864498</v>
-      </c>
-      <c r="CX110">
-        <v>2.2592361889610002</v>
-      </c>
-      <c r="CY110">
-        <v>2.1114672701417398</v>
-      </c>
-      <c r="CZ110">
-        <v>1.95980565982771</v>
-      </c>
-      <c r="DA110">
-        <v>1.81110666249872</v>
-      </c>
-      <c r="DB110">
-        <v>12.957690818302501</v>
-      </c>
-      <c r="DC110">
-        <v>20.749888307075999</v>
-      </c>
-      <c r="DD110">
-        <v>6.2866144558755801</v>
-      </c>
-      <c r="DE110">
-        <v>1.3504019418459099</v>
-      </c>
-      <c r="DF110">
-        <v>7.6391713801021194E-2</v>
-      </c>
+    <row r="110" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="10"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/RubellaModel.xlsx
+++ b/RubellaModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A02B07F-7697-2244-B33C-00550C15DAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCED3A7B-F6F8-8F44-B77A-B51B6A57655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="1" r:id="rId1"/>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38BB5D-709B-5649-A9CE-CE248A9EEEB9}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1575,8 +1575,8 @@
   </sheetPr>
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="116" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5840,8 +5840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0439F58-195A-FC4B-BFD4-9EADB89FDAA6}">
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView zoomScale="40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5949,10 +5949,10 @@
         <v>82</v>
       </c>
       <c r="B2">
-        <v>995158.53700466652</v>
+        <v>995158.53700466699</v>
       </c>
       <c r="C2">
-        <v>995718.20698343473</v>
+        <v>995718.20698343497</v>
       </c>
       <c r="D2">
         <v>999385.76103078423</v>
@@ -6039,7 +6039,7 @@
         <v>1159888.6437037815</v>
       </c>
       <c r="AF2">
-        <v>1159407.6159169674</v>
+        <v>1159407.61591697</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.15">
@@ -6375,8 +6375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391ED1A2-F1A6-2F4C-9536-9C7E989709D5}">
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="75" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView zoomScale="75" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17103,7 +17103,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17189,7 +17189,7 @@
   </sheetPr>
   <dimension ref="A1:DF119"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="CN3" zoomScale="75" workbookViewId="0">
       <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>

--- a/RubellaModel.xlsx
+++ b/RubellaModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCED3A7B-F6F8-8F44-B77A-B51B6A57655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03B725E-E164-3546-966E-2DCEAC1E1366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="1" r:id="rId1"/>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1169,7 +1169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38BB5D-709B-5649-A9CE-CE248A9EEEB9}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+    <sheetView zoomScale="112" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5840,7 +5840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0439F58-195A-FC4B-BFD4-9EADB89FDAA6}">
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
@@ -6375,7 +6375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391ED1A2-F1A6-2F4C-9536-9C7E989709D5}">
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="75" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -17189,7 +17189,7 @@
   </sheetPr>
   <dimension ref="A1:DF119"/>
   <sheetViews>
-    <sheetView topLeftCell="CN3" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BB13" zoomScale="42" workbookViewId="0">
       <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>

--- a/RubellaModel.xlsx
+++ b/RubellaModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03B725E-E164-3546-966E-2DCEAC1E1366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D971C39-2D39-AE49-A2E5-FF4DD0558567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="1" r:id="rId1"/>
@@ -738,7 +738,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0_);[Red]\(&quot;R&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -758,12 +758,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFDF3079"/>
-      <name val="Monaco"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -841,23 +835,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,28 +1084,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1154,7 +1147,7 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1"/>
       <c r="D5" s="3"/>
       <c r="F5" s="3"/>
@@ -1181,22 +1174,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1287,7 +1280,7 @@
       <c r="B6" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>219</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1327,7 +1320,7 @@
       <c r="B8" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>205</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1347,7 +1340,7 @@
       <c r="B9" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1367,7 +1360,7 @@
       <c r="B10" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>187</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1387,7 +1380,7 @@
       <c r="B11" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>227</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1467,7 +1460,7 @@
       <c r="B15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>189</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1507,7 +1500,7 @@
       <c r="B17" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>191</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1547,7 +1540,7 @@
       <c r="B19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>208</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1576,43 +1569,43 @@
   <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -1633,7 +1626,7 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <f t="shared" ref="F2:F13" si="0">1-EXP(-0.95*A2)</f>
         <v>0.61325897654549877</v>
       </c>
@@ -1653,6 +1646,9 @@
       <c r="K2">
         <f>J2/120</f>
         <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1672,7 +1668,7 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f t="shared" si="0"/>
         <v>0.85043138077736491</v>
       </c>
@@ -1692,6 +1688,9 @@
       <c r="K3">
         <f t="shared" ref="K3:K66" si="2">J3/120</f>
         <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1711,7 +1710,7 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>0.94215567912516152</v>
       </c>
@@ -1731,6 +1730,9 @@
       <c r="K4">
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1750,7 +1752,7 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>0.97762922814383435</v>
       </c>
@@ -1770,6 +1772,9 @@
       <c r="K5">
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1789,7 +1794,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>0.99134830479687941</v>
       </c>
@@ -1809,6 +1814,9 @@
       <c r="K6">
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1829,7 +1837,7 @@
         <f>0.847*0.97*0.85</f>
         <v>0.6983514999999999</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>0.99665403454252877</v>
       </c>
@@ -1849,6 +1857,9 @@
       <c r="K7">
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1868,7 +1879,7 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>0.99870597789453419</v>
       </c>
@@ -1888,6 +1899,9 @@
       <c r="K8">
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1907,7 +1921,7 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>0.99949954856655943</v>
       </c>
@@ -1927,6 +1941,9 @@
       <c r="K9">
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1946,7 +1963,7 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>0.99980645490044195</v>
       </c>
@@ -1966,6 +1983,9 @@
       <c r="K10">
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1985,7 +2005,7 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>0.99992514817011235</v>
       </c>
@@ -2005,6 +2025,9 @@
       <c r="K11">
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2024,7 +2047,7 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>0.99997105172670175</v>
       </c>
@@ -2044,6 +2067,9 @@
       <c r="K12">
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2064,7 +2090,7 @@
         <f>0.72*0.97*0.85</f>
         <v>0.59363999999999995</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>0.99998880451515737</v>
       </c>
@@ -2084,6 +2110,9 @@
       <c r="K13">
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2123,6 +2152,9 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
@@ -2161,8 +2193,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2199,9 +2234,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2238,8 +2275,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2276,8 +2316,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2314,8 +2357,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2352,8 +2398,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2390,8 +2439,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2428,8 +2480,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2466,8 +2521,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2504,8 +2562,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2542,8 +2603,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2580,8 +2644,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2618,8 +2685,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2656,8 +2726,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2694,8 +2767,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2732,8 +2808,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2770,8 +2849,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2808,8 +2890,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2846,8 +2931,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2884,8 +2972,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2922,8 +3013,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2960,8 +3054,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2998,8 +3095,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3036,8 +3136,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3074,8 +3177,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3112,8 +3218,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3150,8 +3259,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3188,8 +3300,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3226,8 +3341,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3264,8 +3382,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3302,8 +3423,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3340,8 +3464,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3378,8 +3505,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3416,8 +3546,11 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3454,15 +3587,18 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D50" s="1">
@@ -3479,7 +3615,7 @@
         <f>1/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="9" t="s">
         <v>84</v>
       </c>
       <c r="I50">
@@ -3492,8 +3628,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3530,15 +3669,18 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>72</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D52" s="1">
@@ -3555,7 +3697,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="9" t="s">
         <v>86</v>
       </c>
       <c r="I52">
@@ -3568,8 +3710,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3606,15 +3751,18 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>96</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D54" s="1">
@@ -3631,7 +3779,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I54">
@@ -3644,8 +3792,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3682,15 +3833,18 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>120</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="1">
@@ -3707,7 +3861,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="9" t="s">
         <v>90</v>
       </c>
       <c r="I56">
@@ -3720,8 +3874,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3758,15 +3915,18 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>144</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D58" s="1">
@@ -3783,7 +3943,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="9" t="s">
         <v>92</v>
       </c>
       <c r="I58">
@@ -3796,8 +3956,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3834,15 +3997,18 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>168</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D60" s="1">
@@ -3859,7 +4025,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H60" s="9" t="s">
         <v>94</v>
       </c>
       <c r="I60">
@@ -3872,8 +4038,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3910,15 +4079,18 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1">
         <v>192</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D62" s="1">
@@ -3935,7 +4107,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H62" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I62">
@@ -3948,8 +4120,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3986,15 +4161,18 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
     </row>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1">
         <v>216</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D64" s="1">
@@ -4011,7 +4189,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H64" s="9" t="s">
         <v>98</v>
       </c>
       <c r="I64">
@@ -4024,8 +4202,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
     </row>
-    <row r="65" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4062,15 +4243,18 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
     </row>
-    <row r="66" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>240</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>100</v>
       </c>
       <c r="D66" s="1">
@@ -4087,7 +4271,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="H66" s="9" t="s">
         <v>100</v>
       </c>
       <c r="I66">
@@ -4100,8 +4284,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
     </row>
-    <row r="67" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4138,15 +4325,18 @@
         <f t="shared" ref="K67:K109" si="6">J67/120</f>
         <v>0.1</v>
       </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
     </row>
-    <row r="68" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1">
         <v>264</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D68" s="1">
@@ -4163,7 +4353,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H68" s="10" t="s">
+      <c r="H68" s="9" t="s">
         <v>102</v>
       </c>
       <c r="I68">
@@ -4176,8 +4366,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
     </row>
-    <row r="69" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4214,15 +4407,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
     </row>
-    <row r="70" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>288</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D70" s="1">
@@ -4239,7 +4435,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="H70" s="9" t="s">
         <v>104</v>
       </c>
       <c r="I70">
@@ -4252,8 +4448,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
     </row>
-    <row r="71" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4290,15 +4489,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
     </row>
-    <row r="72" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>312</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D72" s="1">
@@ -4315,7 +4517,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="H72" s="9" t="s">
         <v>106</v>
       </c>
       <c r="I72">
@@ -4328,8 +4530,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
     </row>
-    <row r="73" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4366,15 +4571,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
     </row>
-    <row r="74" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1">
         <v>336</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D74" s="1">
@@ -4391,7 +4599,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H74" s="9" t="s">
         <v>108</v>
       </c>
       <c r="I74">
@@ -4404,8 +4612,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
     </row>
-    <row r="75" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4442,15 +4653,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
     </row>
-    <row r="76" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1">
         <v>360</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D76" s="1">
@@ -4467,7 +4681,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H76" s="10" t="s">
+      <c r="H76" s="9" t="s">
         <v>110</v>
       </c>
       <c r="I76">
@@ -4480,8 +4694,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L76">
+        <v>5</v>
+      </c>
     </row>
-    <row r="77" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4518,15 +4735,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L77">
+        <v>5</v>
+      </c>
     </row>
-    <row r="78" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1">
         <v>384</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D78" s="1">
@@ -4543,7 +4763,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H78" s="10" t="s">
+      <c r="H78" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I78">
@@ -4556,8 +4776,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L78">
+        <v>5</v>
+      </c>
     </row>
-    <row r="79" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4594,15 +4817,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L79">
+        <v>5</v>
+      </c>
     </row>
-    <row r="80" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1">
         <v>408</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="9" t="s">
         <v>114</v>
       </c>
       <c r="D80" s="1">
@@ -4619,7 +4845,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H80" s="10" t="s">
+      <c r="H80" s="9" t="s">
         <v>114</v>
       </c>
       <c r="I80">
@@ -4632,8 +4858,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L80">
+        <v>6</v>
+      </c>
     </row>
-    <row r="81" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4670,15 +4899,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L81">
+        <v>6</v>
+      </c>
     </row>
-    <row r="82" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1">
         <v>432</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="9" t="s">
         <v>116</v>
       </c>
       <c r="D82" s="1">
@@ -4695,7 +4927,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="H82" s="9" t="s">
         <v>116</v>
       </c>
       <c r="I82">
@@ -4708,8 +4940,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L82">
+        <v>6</v>
+      </c>
     </row>
-    <row r="83" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4746,15 +4981,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L83">
+        <v>6</v>
+      </c>
     </row>
-    <row r="84" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1">
         <v>456</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D84" s="1">
@@ -4771,7 +5009,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H84" s="10" t="s">
+      <c r="H84" s="9" t="s">
         <v>139</v>
       </c>
       <c r="I84">
@@ -4784,8 +5022,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L84">
+        <v>6</v>
+      </c>
     </row>
-    <row r="85" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4822,15 +5063,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L85">
+        <v>7</v>
+      </c>
     </row>
-    <row r="86" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1">
         <v>480</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D86" s="1">
@@ -4847,7 +5091,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H86" s="9" t="s">
         <v>118</v>
       </c>
       <c r="I86">
@@ -4860,8 +5104,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L86">
+        <v>7</v>
+      </c>
     </row>
-    <row r="87" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4898,15 +5145,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L87">
+        <v>7</v>
+      </c>
     </row>
-    <row r="88" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1">
         <v>504</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D88" s="1">
@@ -4923,7 +5173,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H88" s="10" t="s">
+      <c r="H88" s="9" t="s">
         <v>120</v>
       </c>
       <c r="I88">
@@ -4936,8 +5186,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L88">
+        <v>7</v>
+      </c>
     </row>
-    <row r="89" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4974,15 +5227,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L89">
+        <v>7</v>
+      </c>
     </row>
-    <row r="90" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1">
         <v>528</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D90" s="1">
@@ -4999,7 +5255,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H90" s="10" t="s">
+      <c r="H90" s="9" t="s">
         <v>122</v>
       </c>
       <c r="I90">
@@ -5012,8 +5268,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L90">
+        <v>8</v>
+      </c>
     </row>
-    <row r="91" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5050,15 +5309,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L91">
+        <v>8</v>
+      </c>
     </row>
-    <row r="92" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1">
         <v>552</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D92" s="1">
@@ -5075,7 +5337,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H92" s="10" t="s">
+      <c r="H92" s="9" t="s">
         <v>124</v>
       </c>
       <c r="I92">
@@ -5088,8 +5350,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L92">
+        <v>8</v>
+      </c>
     </row>
-    <row r="93" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5126,15 +5391,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L93">
+        <v>8</v>
+      </c>
     </row>
-    <row r="94" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1">
         <v>576</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D94" s="1">
@@ -5151,7 +5419,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H94" s="9" t="s">
         <v>126</v>
       </c>
       <c r="I94">
@@ -5164,8 +5432,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L94">
+        <v>8</v>
+      </c>
     </row>
-    <row r="95" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5202,15 +5473,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L95">
+        <v>9</v>
+      </c>
     </row>
-    <row r="96" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1">
         <v>600</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D96" s="1">
@@ -5227,7 +5501,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H96" s="10" t="s">
+      <c r="H96" s="9" t="s">
         <v>128</v>
       </c>
       <c r="I96">
@@ -5240,8 +5514,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L96">
+        <v>9</v>
+      </c>
     </row>
-    <row r="97" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5278,15 +5555,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L97">
+        <v>9</v>
+      </c>
     </row>
-    <row r="98" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1">
         <v>624</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="9" t="s">
         <v>130</v>
       </c>
       <c r="D98" s="1">
@@ -5303,7 +5583,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H98" s="10" t="s">
+      <c r="H98" s="9" t="s">
         <v>130</v>
       </c>
       <c r="I98">
@@ -5316,8 +5596,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L98">
+        <v>9</v>
+      </c>
     </row>
-    <row r="99" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5354,15 +5637,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L99">
+        <v>9</v>
+      </c>
     </row>
-    <row r="100" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1">
         <v>648</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D100" s="1">
@@ -5379,7 +5665,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H100" s="10" t="s">
+      <c r="H100" s="9" t="s">
         <v>132</v>
       </c>
       <c r="I100">
@@ -5392,8 +5678,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L100">
+        <v>10</v>
+      </c>
     </row>
-    <row r="101" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5430,15 +5719,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L101">
+        <v>10</v>
+      </c>
     </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1">
         <v>672</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="9" t="s">
         <v>134</v>
       </c>
       <c r="D102" s="1">
@@ -5455,7 +5747,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H102" s="10" t="s">
+      <c r="H102" s="9" t="s">
         <v>134</v>
       </c>
       <c r="I102">
@@ -5468,8 +5760,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L102">
+        <v>10</v>
+      </c>
     </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5506,15 +5801,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L103">
+        <v>10</v>
+      </c>
     </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1">
         <v>696</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="9" t="s">
         <v>136</v>
       </c>
       <c r="D104" s="1">
@@ -5531,7 +5829,7 @@
         <f t="shared" si="5"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="H104" s="10" t="s">
+      <c r="H104" s="9" t="s">
         <v>136</v>
       </c>
       <c r="I104">
@@ -5544,8 +5842,11 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
+      <c r="L104">
+        <v>10</v>
+      </c>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5582,15 +5883,18 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="L105">
+        <v>10</v>
+      </c>
     </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1">
         <v>720</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D106" s="1">
@@ -5607,7 +5911,7 @@
         <f>1/3650</f>
         <v>2.7397260273972601E-4</v>
       </c>
-      <c r="H106" s="10" t="s">
+      <c r="H106" s="9" t="s">
         <v>140</v>
       </c>
       <c r="I106">
@@ -5620,8 +5924,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="L106">
+        <v>11</v>
+      </c>
     </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5658,15 +5965,18 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="L107">
+        <v>11</v>
+      </c>
     </row>
-    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1">
         <v>960</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D108" s="1">
@@ -5683,7 +5993,7 @@
         <f t="shared" si="8"/>
         <v>2.7397260273972601E-4</v>
       </c>
-      <c r="H108" s="10" t="s">
+      <c r="H108" s="9" t="s">
         <v>142</v>
       </c>
       <c r="I108">
@@ -5696,8 +6006,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="L108">
+        <v>11</v>
+      </c>
     </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5734,22 +6047,25 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="L109">
+        <v>11</v>
+      </c>
     </row>
-    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="10"/>
+      <c r="C110" s="9"/>
       <c r="D110" s="3"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="10"/>
+      <c r="H110" s="9"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5831,7 +6147,7 @@
       <c r="B138" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5840,7 +6156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0439F58-195A-FC4B-BFD4-9EADB89FDAA6}">
   <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
@@ -6184,187 +6500,187 @@
       <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
+      <c r="A50" s="9"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="10"/>
+      <c r="A52" s="9"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="10"/>
+      <c r="A54" s="9"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="10"/>
+      <c r="A56" s="9"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="10"/>
+      <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="10"/>
+      <c r="A60" s="9"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="10"/>
+      <c r="A62" s="9"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="10"/>
+      <c r="A64" s="9"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="10"/>
+      <c r="A66" s="9"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="10"/>
+      <c r="A68" s="9"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="10"/>
+      <c r="A70" s="9"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="10"/>
+      <c r="A72" s="9"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="10"/>
+      <c r="A74" s="9"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="10"/>
+      <c r="A76" s="9"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="10"/>
+      <c r="A78" s="9"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="10"/>
+      <c r="A80" s="9"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="10"/>
+      <c r="A82" s="9"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="10"/>
+      <c r="A84" s="9"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" s="10"/>
+      <c r="A86" s="9"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" s="10"/>
+      <c r="A88" s="9"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" s="10"/>
+      <c r="A90" s="9"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="10"/>
+      <c r="A92" s="9"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" s="10"/>
+      <c r="A94" s="9"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" s="10"/>
+      <c r="A96" s="9"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="10"/>
+      <c r="A98" s="9"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="10"/>
+      <c r="A100" s="9"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="10"/>
+      <c r="A102" s="9"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="10"/>
+      <c r="A104" s="9"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" s="10"/>
+      <c r="A106" s="9"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" s="10"/>
+      <c r="A108" s="9"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="10"/>
+      <c r="A110" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11184,7 +11500,7 @@
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B50">
@@ -11380,7 +11696,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B52">
@@ -11576,7 +11892,7 @@
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B54">
@@ -11772,7 +12088,7 @@
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B56">
@@ -11968,7 +12284,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B58">
@@ -12164,7 +12480,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B60">
@@ -12360,7 +12676,7 @@
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B62">
@@ -12556,7 +12872,7 @@
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B64">
@@ -12752,7 +13068,7 @@
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B66">
@@ -12948,7 +13264,7 @@
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B68">
@@ -13144,7 +13460,7 @@
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B70">
@@ -13340,7 +13656,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B72">
@@ -13536,7 +13852,7 @@
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B74">
@@ -13732,7 +14048,7 @@
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B76">
@@ -13928,7 +14244,7 @@
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B78">
@@ -14124,7 +14440,7 @@
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B80">
@@ -14320,7 +14636,7 @@
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B82">
@@ -14516,7 +14832,7 @@
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B84">
@@ -14712,7 +15028,7 @@
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B86">
@@ -14908,7 +15224,7 @@
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B88">
@@ -15104,7 +15420,7 @@
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>122</v>
       </c>
       <c r="B90">
@@ -15300,7 +15616,7 @@
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B92">
@@ -15496,7 +15812,7 @@
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B94">
@@ -15692,7 +16008,7 @@
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B96">
@@ -15888,7 +16204,7 @@
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B98">
@@ -16084,7 +16400,7 @@
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B100">
@@ -16280,7 +16596,7 @@
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B102">
@@ -16476,7 +16792,7 @@
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B104">
@@ -16672,7 +16988,7 @@
       </c>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="9" t="s">
         <v>160</v>
       </c>
       <c r="B106">
@@ -16868,7 +17184,7 @@
       </c>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B108">
@@ -17064,7 +17380,7 @@
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A110" s="10"/>
+      <c r="A110" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AF110">
@@ -17112,13 +17428,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -17189,7 +17505,7 @@
   </sheetPr>
   <dimension ref="A1:DF119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB13" zoomScale="42" workbookViewId="0">
+    <sheetView topLeftCell="BB13" zoomScale="42" workbookViewId="0">
       <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
@@ -17346,187 +17662,187 @@
       <c r="AW1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="AX1" s="9" t="s">
         <v>84</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>86</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BB1" s="10" t="s">
+      <c r="BB1" s="9" t="s">
         <v>88</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BD1" s="9" t="s">
         <v>90</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BF1" s="9" t="s">
         <v>92</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BH1" s="9" t="s">
         <v>94</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>96</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BL1" s="9" t="s">
         <v>98</v>
       </c>
       <c r="BM1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BN1" s="9" t="s">
         <v>100</v>
       </c>
       <c r="BO1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BP1" s="10" t="s">
+      <c r="BP1" s="9" t="s">
         <v>102</v>
       </c>
       <c r="BQ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BR1" s="10" t="s">
+      <c r="BR1" s="9" t="s">
         <v>104</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BT1" s="10" t="s">
+      <c r="BT1" s="9" t="s">
         <v>106</v>
       </c>
       <c r="BU1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BV1" s="9" t="s">
         <v>108</v>
       </c>
       <c r="BW1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BX1" s="10" t="s">
+      <c r="BX1" s="9" t="s">
         <v>110</v>
       </c>
       <c r="BY1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BZ1" s="10" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>112</v>
       </c>
       <c r="CA1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CB1" s="9" t="s">
         <v>114</v>
       </c>
       <c r="CC1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CD1" s="9" t="s">
         <v>116</v>
       </c>
       <c r="CE1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="CF1" s="10" t="s">
+      <c r="CF1" s="9" t="s">
         <v>139</v>
       </c>
       <c r="CG1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="CH1" s="10" t="s">
+      <c r="CH1" s="9" t="s">
         <v>118</v>
       </c>
       <c r="CI1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="CJ1" s="10" t="s">
+      <c r="CJ1" s="9" t="s">
         <v>120</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="CL1" s="10" t="s">
+      <c r="CL1" s="9" t="s">
         <v>122</v>
       </c>
       <c r="CM1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="CN1" s="10" t="s">
+      <c r="CN1" s="9" t="s">
         <v>124</v>
       </c>
       <c r="CO1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="CP1" s="10" t="s">
+      <c r="CP1" s="9" t="s">
         <v>126</v>
       </c>
       <c r="CQ1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="CR1" s="10" t="s">
+      <c r="CR1" s="9" t="s">
         <v>128</v>
       </c>
       <c r="CS1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="CT1" s="10" t="s">
+      <c r="CT1" s="9" t="s">
         <v>130</v>
       </c>
       <c r="CU1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="CV1" s="10" t="s">
+      <c r="CV1" s="9" t="s">
         <v>132</v>
       </c>
       <c r="CW1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="CX1" s="10" t="s">
+      <c r="CX1" s="9" t="s">
         <v>134</v>
       </c>
       <c r="CY1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="CZ1" s="10" t="s">
+      <c r="CZ1" s="9" t="s">
         <v>136</v>
       </c>
       <c r="DA1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="DB1" s="10" t="s">
+      <c r="DB1" s="9" t="s">
         <v>140</v>
       </c>
       <c r="DC1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="DD1" s="10" t="s">
+      <c r="DD1" s="9" t="s">
         <v>142</v>
       </c>
       <c r="DE1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DF1" s="10"/>
+      <c r="DF1" s="9"/>
     </row>
     <row r="2" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -33321,7 +33637,7 @@
       </c>
     </row>
     <row r="50" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B50">
@@ -33979,7 +34295,7 @@
       </c>
     </row>
     <row r="52" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B52">
@@ -34637,7 +34953,7 @@
       </c>
     </row>
     <row r="54" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B54">
@@ -35295,7 +35611,7 @@
       </c>
     </row>
     <row r="56" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B56">
@@ -35953,7 +36269,7 @@
       </c>
     </row>
     <row r="58" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B58">
@@ -36611,7 +36927,7 @@
       </c>
     </row>
     <row r="60" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B60">
@@ -37269,7 +37585,7 @@
       </c>
     </row>
     <row r="62" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B62">
@@ -37927,7 +38243,7 @@
       </c>
     </row>
     <row r="64" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B64">
@@ -38585,7 +38901,7 @@
       </c>
     </row>
     <row r="66" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B66">
@@ -39243,7 +39559,7 @@
       </c>
     </row>
     <row r="68" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B68">
@@ -39901,7 +40217,7 @@
       </c>
     </row>
     <row r="70" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B70">
@@ -40559,7 +40875,7 @@
       </c>
     </row>
     <row r="72" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B72">
@@ -41217,7 +41533,7 @@
       </c>
     </row>
     <row r="74" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B74">
@@ -41875,7 +42191,7 @@
       </c>
     </row>
     <row r="76" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B76">
@@ -42533,7 +42849,7 @@
       </c>
     </row>
     <row r="78" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B78">
@@ -43191,7 +43507,7 @@
       </c>
     </row>
     <row r="80" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B80">
@@ -43849,7 +44165,7 @@
       </c>
     </row>
     <row r="82" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B82">
@@ -44507,7 +44823,7 @@
       </c>
     </row>
     <row r="84" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B84">
@@ -45165,7 +45481,7 @@
       </c>
     </row>
     <row r="86" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B86">
@@ -45823,7 +46139,7 @@
       </c>
     </row>
     <row r="88" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B88">
@@ -46481,7 +46797,7 @@
       </c>
     </row>
     <row r="90" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>122</v>
       </c>
       <c r="B90">
@@ -47139,7 +47455,7 @@
       </c>
     </row>
     <row r="92" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B92">
@@ -47797,7 +48113,7 @@
       </c>
     </row>
     <row r="94" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B94">
@@ -48455,7 +48771,7 @@
       </c>
     </row>
     <row r="96" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B96">
@@ -49113,7 +49429,7 @@
       </c>
     </row>
     <row r="98" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B98">
@@ -49771,7 +50087,7 @@
       </c>
     </row>
     <row r="100" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B100">
@@ -50429,7 +50745,7 @@
       </c>
     </row>
     <row r="102" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B102">
@@ -51087,7 +51403,7 @@
       </c>
     </row>
     <row r="104" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B104">
@@ -51745,7 +52061,7 @@
       </c>
     </row>
     <row r="106" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B106">
@@ -52403,7 +52719,7 @@
       </c>
     </row>
     <row r="108" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="9" t="s">
         <v>142</v>
       </c>
       <c r="B108">
@@ -53061,10 +53377,10 @@
       </c>
     </row>
     <row r="110" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="10"/>
+      <c r="A110" s="9"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>175</v>
       </c>
     </row>
